--- a/data/poas/poas19.xlsx
+++ b/data/poas/poas19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaime/Desktop/poas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617C52B3-6D62-E147-B9C2-8E3CE03C7DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA99C20-2774-7A4A-9B2F-3693E80FD00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="21100" tabRatio="891" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -320,13 +320,7 @@
     <t>INVOLUTARY WITHDRAW</t>
   </si>
   <si>
-    <t>SELECT</t>
-  </si>
-  <si>
     <t>VOLUNTARY WITHDRAW</t>
-  </si>
-  <si>
-    <t>NON-SELECT</t>
   </si>
   <si>
     <t>MEDICAL</t>
@@ -363,9 +357,6 @@
   </si>
   <si>
     <t>68R</t>
-  </si>
-  <si>
-    <t>NON SELECT</t>
   </si>
   <si>
     <t>91C</t>
@@ -459,6 +450,15 @@
   </si>
   <si>
     <t>SEC</t>
+  </si>
+  <si>
+    <t>NON-SELECTED</t>
+  </si>
+  <si>
+    <t>NON SELECTED</t>
+  </si>
+  <si>
+    <t>SELECTEDED</t>
   </si>
 </sst>
 </file>
@@ -1625,7 +1625,7 @@
   </sheetPr>
   <dimension ref="A1:U319"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
@@ -1667,7 +1667,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>93</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1911,7 +1911,7 @@
         <v>93</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2036,10 +2036,10 @@
         <v>22</v>
       </c>
       <c r="T6" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2102,7 +2102,7 @@
         <v>93</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2167,7 +2167,7 @@
         <v>93</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2230,7 +2230,7 @@
         <v>93</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2293,7 +2293,7 @@
         <v>93</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
@@ -2355,10 +2355,10 @@
         <v>23</v>
       </c>
       <c r="T11" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2483,10 +2483,10 @@
         <v>22</v>
       </c>
       <c r="T13" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2546,10 +2546,10 @@
         <v>23</v>
       </c>
       <c r="T14" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2611,10 +2611,10 @@
         <v>23</v>
       </c>
       <c r="T15" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2676,10 +2676,10 @@
         <v>23</v>
       </c>
       <c r="T16" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2744,7 +2744,7 @@
         <v>93</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2807,7 +2807,7 @@
         <v>93</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2870,7 +2870,7 @@
         <v>93</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2933,7 +2933,7 @@
         <v>93</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2993,10 +2993,10 @@
         <v>22</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U21" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3056,10 +3056,10 @@
         <v>23</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U22" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3122,7 +3122,7 @@
         <v>93</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3248,7 +3248,7 @@
         <v>93</v>
       </c>
       <c r="U25" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3313,7 +3313,7 @@
         <v>93</v>
       </c>
       <c r="U26" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3373,10 +3373,10 @@
         <v>22</v>
       </c>
       <c r="T27" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U27" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3439,7 +3439,7 @@
         <v>93</v>
       </c>
       <c r="U28" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3502,7 +3502,7 @@
         <v>93</v>
       </c>
       <c r="U29" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3562,10 +3562,10 @@
         <v>22</v>
       </c>
       <c r="T30" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U30" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3625,10 +3625,10 @@
         <v>23</v>
       </c>
       <c r="T31" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U31" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3693,7 +3693,7 @@
         <v>93</v>
       </c>
       <c r="U32" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3756,7 +3756,7 @@
         <v>93</v>
       </c>
       <c r="U33" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3819,7 +3819,7 @@
         <v>93</v>
       </c>
       <c r="U34" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3882,7 +3882,7 @@
         <v>93</v>
       </c>
       <c r="U35" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4010,7 +4010,7 @@
         <v>93</v>
       </c>
       <c r="U37" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4203,7 +4203,7 @@
         <v>93</v>
       </c>
       <c r="U40" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4391,10 +4391,10 @@
         <v>22</v>
       </c>
       <c r="T43" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U43" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4454,10 +4454,10 @@
         <v>23</v>
       </c>
       <c r="T44" s="18" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="U44" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4520,7 +4520,7 @@
         <v>93</v>
       </c>
       <c r="U45" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4582,10 +4582,10 @@
         <v>22</v>
       </c>
       <c r="T46" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U46" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4645,10 +4645,10 @@
         <v>23</v>
       </c>
       <c r="T47" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="U47" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="U47" s="12" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4708,10 +4708,10 @@
         <v>23</v>
       </c>
       <c r="T48" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U48" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4776,7 +4776,7 @@
         <v>93</v>
       </c>
       <c r="U49" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4841,7 +4841,7 @@
         <v>93</v>
       </c>
       <c r="U50" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4971,7 +4971,7 @@
         <v>93</v>
       </c>
       <c r="U52" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5033,10 +5033,10 @@
         <v>22</v>
       </c>
       <c r="T53" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U53" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5096,10 +5096,10 @@
         <v>22</v>
       </c>
       <c r="T54" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U54" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5162,7 +5162,7 @@
         <v>93</v>
       </c>
       <c r="U55" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5225,7 +5225,7 @@
         <v>93</v>
       </c>
       <c r="U56" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5287,10 +5287,10 @@
         <v>23</v>
       </c>
       <c r="T57" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U57" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5355,7 +5355,7 @@
         <v>93</v>
       </c>
       <c r="U58" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5415,10 +5415,10 @@
         <v>22</v>
       </c>
       <c r="T59" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U59" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5483,7 +5483,7 @@
         <v>93</v>
       </c>
       <c r="U60" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5543,10 +5543,10 @@
         <v>22</v>
       </c>
       <c r="T61" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U61" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5609,7 +5609,7 @@
         <v>93</v>
       </c>
       <c r="U62" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5671,10 +5671,10 @@
         <v>23</v>
       </c>
       <c r="T63" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U63" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5734,10 +5734,10 @@
         <v>23</v>
       </c>
       <c r="T64" s="18" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="U64" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5802,7 +5802,7 @@
         <v>93</v>
       </c>
       <c r="U65" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5867,7 +5867,7 @@
         <v>93</v>
       </c>
       <c r="U66" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5930,7 +5930,7 @@
         <v>93</v>
       </c>
       <c r="U67" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5993,7 +5993,7 @@
         <v>93</v>
       </c>
       <c r="U68" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6058,7 +6058,7 @@
         <v>93</v>
       </c>
       <c r="U69" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6118,10 +6118,10 @@
         <v>22</v>
       </c>
       <c r="T70" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="U70" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="U70" s="12" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6247,7 +6247,7 @@
         <v>93</v>
       </c>
       <c r="U72" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6312,7 +6312,7 @@
         <v>93</v>
       </c>
       <c r="U73" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6375,7 +6375,7 @@
         <v>93</v>
       </c>
       <c r="U74" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6566,7 +6566,7 @@
         <v>93</v>
       </c>
       <c r="U77" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6626,10 +6626,10 @@
         <v>23</v>
       </c>
       <c r="T78" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U78" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6689,10 +6689,10 @@
         <v>23</v>
       </c>
       <c r="T79" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U79" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6818,7 +6818,7 @@
         <v>93</v>
       </c>
       <c r="U81" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6880,10 +6880,10 @@
         <v>23</v>
       </c>
       <c r="T82" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U82" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6946,7 +6946,7 @@
         <v>93</v>
       </c>
       <c r="U83" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6957,7 +6957,7 @@
         <v>46</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D84" s="20" t="s">
         <v>22</v>
@@ -7008,10 +7008,10 @@
         <v>23</v>
       </c>
       <c r="T84" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="U84" s="26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7071,10 +7071,10 @@
         <v>22</v>
       </c>
       <c r="T85" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="U85" s="26" t="s">
         <v>97</v>
-      </c>
-      <c r="U85" s="26" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7085,7 +7085,7 @@
         <v>46</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D86" s="20" t="s">
         <v>22</v>
@@ -7136,10 +7136,10 @@
         <v>23</v>
       </c>
       <c r="T86" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U86" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7264,10 +7264,10 @@
         <v>23</v>
       </c>
       <c r="T88" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U88" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7278,7 +7278,7 @@
         <v>45</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>22</v>
@@ -7327,10 +7327,10 @@
         <v>23</v>
       </c>
       <c r="T89" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="U89" s="26" t="s">
         <v>97</v>
-      </c>
-      <c r="U89" s="26" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7455,10 +7455,10 @@
         <v>23</v>
       </c>
       <c r="T91" s="27" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U91" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7581,10 +7581,10 @@
         <v>23</v>
       </c>
       <c r="T93" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U93" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7707,10 +7707,10 @@
         <v>23</v>
       </c>
       <c r="T95" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U95" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7770,10 +7770,10 @@
         <v>23</v>
       </c>
       <c r="T96" s="27" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="U96" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7833,10 +7833,10 @@
         <v>22</v>
       </c>
       <c r="T97" s="27" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U97" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7898,10 +7898,10 @@
         <v>22</v>
       </c>
       <c r="T98" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U98" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8282,10 +8282,10 @@
         <v>22</v>
       </c>
       <c r="T104" s="27" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U104" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8345,10 +8345,10 @@
         <v>22</v>
       </c>
       <c r="T105" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U105" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8410,10 +8410,10 @@
         <v>22</v>
       </c>
       <c r="T106" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U106" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8473,10 +8473,10 @@
         <v>22</v>
       </c>
       <c r="T107" s="27" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U107" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8487,7 +8487,7 @@
         <v>45</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D108" s="20" t="s">
         <v>22</v>
@@ -8536,10 +8536,10 @@
         <v>22</v>
       </c>
       <c r="T108" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U108" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8550,7 +8550,7 @@
         <v>45</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D109" s="20" t="s">
         <v>22</v>
@@ -8792,10 +8792,10 @@
         <v>23</v>
       </c>
       <c r="T112" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U112" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="113" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8871,7 +8871,7 @@
         <v>44</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D114" s="20" t="s">
         <v>22</v>
@@ -8920,10 +8920,10 @@
         <v>22</v>
       </c>
       <c r="T114" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U114" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8934,7 +8934,7 @@
         <v>45</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D115" s="20" t="s">
         <v>22</v>
@@ -8983,10 +8983,10 @@
         <v>22</v>
       </c>
       <c r="T115" s="27" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U115" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="116" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9046,10 +9046,10 @@
         <v>22</v>
       </c>
       <c r="T116" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U116" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="117" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9109,10 +9109,10 @@
         <v>22</v>
       </c>
       <c r="T117" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U117" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9123,7 +9123,7 @@
         <v>45</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D118" s="20" t="s">
         <v>23</v>
@@ -9172,10 +9172,10 @@
         <v>23</v>
       </c>
       <c r="T118" s="27" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U118" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9235,10 +9235,10 @@
         <v>22</v>
       </c>
       <c r="T119" s="27" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U119" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="120" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9424,10 +9424,10 @@
         <v>23</v>
       </c>
       <c r="T122" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="U122" s="28" t="s">
         <v>97</v>
-      </c>
-      <c r="U122" s="28" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="123" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9487,10 +9487,10 @@
         <v>23</v>
       </c>
       <c r="T123" s="27" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U123" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9550,10 +9550,10 @@
         <v>23</v>
       </c>
       <c r="T124" s="27" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U124" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="125" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9613,10 +9613,10 @@
         <v>22</v>
       </c>
       <c r="T125" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U125" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="126" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9739,10 +9739,10 @@
         <v>22</v>
       </c>
       <c r="T127" s="27" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="U127" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="128" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9802,10 +9802,10 @@
         <v>22</v>
       </c>
       <c r="T128" s="27" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U128" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="129" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9865,10 +9865,10 @@
         <v>23</v>
       </c>
       <c r="T129" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U129" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="130" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9928,10 +9928,10 @@
         <v>22</v>
       </c>
       <c r="T130" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U130" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="131" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9993,10 +9993,10 @@
         <v>22</v>
       </c>
       <c r="T131" s="27" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U131" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="132" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10056,10 +10056,10 @@
         <v>23</v>
       </c>
       <c r="T132" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="U132" s="26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10119,10 +10119,10 @@
         <v>22</v>
       </c>
       <c r="T133" s="27" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U133" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="134" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10182,10 +10182,10 @@
         <v>23</v>
       </c>
       <c r="T134" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U134" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10245,10 +10245,10 @@
         <v>22</v>
       </c>
       <c r="T135" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U135" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="136" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10308,10 +10308,10 @@
         <v>23</v>
       </c>
       <c r="T136" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U136" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="137" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10368,13 +10368,13 @@
         <v>123</v>
       </c>
       <c r="S137" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="T137" s="27" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="U137" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="138" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10436,10 +10436,10 @@
         <v>23</v>
       </c>
       <c r="T138" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="U138" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="139" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10566,10 +10566,10 @@
         <v>22</v>
       </c>
       <c r="T140" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U140" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10580,7 +10580,7 @@
         <v>25</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D141" s="20" t="s">
         <v>22</v>
@@ -10631,10 +10631,10 @@
         <v>22</v>
       </c>
       <c r="T141" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U141" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="142" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10645,7 +10645,7 @@
         <v>44</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D142" s="20" t="s">
         <v>22</v>
@@ -10694,10 +10694,10 @@
         <v>23</v>
       </c>
       <c r="T142" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U142" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="143" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10708,7 +10708,7 @@
         <v>45</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D143" s="20" t="s">
         <v>22</v>
@@ -10759,10 +10759,10 @@
         <v>23</v>
       </c>
       <c r="T143" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U143" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="144" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10822,10 +10822,10 @@
         <v>22</v>
       </c>
       <c r="T144" s="27" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U144" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="145" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10948,10 +10948,10 @@
         <v>22</v>
       </c>
       <c r="T146" s="25" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U146" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="147" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11025,7 +11025,7 @@
         <v>46</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D148" s="12" t="s">
         <v>23</v>
@@ -11076,10 +11076,10 @@
         <v>23</v>
       </c>
       <c r="T148" s="25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U148" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="149" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11090,7 +11090,7 @@
         <v>46</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D149" s="12" t="s">
         <v>22</v>
@@ -11141,10 +11141,10 @@
         <v>23</v>
       </c>
       <c r="T149" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="U149" s="31" t="s">
         <v>97</v>
-      </c>
-      <c r="U149" s="31" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="150" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11206,10 +11206,10 @@
         <v>22</v>
       </c>
       <c r="T150" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="U150" s="31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11334,10 +11334,10 @@
         <v>22</v>
       </c>
       <c r="T152" s="25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U152" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="153" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11411,7 +11411,7 @@
         <v>44</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D154" s="12" t="s">
         <v>22</v>
@@ -11460,10 +11460,10 @@
         <v>22</v>
       </c>
       <c r="T154" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="U154" s="31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="155" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11523,10 +11523,10 @@
         <v>22</v>
       </c>
       <c r="T155" s="25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U155" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="156" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11692,7 +11692,7 @@
         <v>32</v>
       </c>
       <c r="L158" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M158" s="13">
         <v>117</v>
@@ -11716,10 +11716,10 @@
         <v>22</v>
       </c>
       <c r="T158" s="25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U158" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="159" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11781,10 +11781,10 @@
         <v>23</v>
       </c>
       <c r="T159" s="25" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U159" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="160" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11858,7 +11858,7 @@
         <v>46</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D161" s="12" t="s">
         <v>22</v>
@@ -11972,10 +11972,10 @@
         <v>22</v>
       </c>
       <c r="T162" s="25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U162" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="163" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12098,10 +12098,10 @@
         <v>22</v>
       </c>
       <c r="T164" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="U164" s="31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="165" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12161,10 +12161,10 @@
         <v>22</v>
       </c>
       <c r="T165" s="25" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U165" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="166" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12226,10 +12226,10 @@
         <v>22</v>
       </c>
       <c r="T166" s="25" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U166" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="167" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12291,10 +12291,10 @@
         <v>23</v>
       </c>
       <c r="T167" s="25" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U167" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="168" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12356,10 +12356,10 @@
         <v>22</v>
       </c>
       <c r="T168" s="25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U168" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="169" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12419,10 +12419,10 @@
         <v>23</v>
       </c>
       <c r="T169" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U169" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="170" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12547,10 +12547,10 @@
         <v>22</v>
       </c>
       <c r="T171" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="U171" s="37" t="s">
         <v>97</v>
-      </c>
-      <c r="U171" s="37" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="172" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12610,10 +12610,10 @@
         <v>22</v>
       </c>
       <c r="T172" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="U172" s="37" t="s">
         <v>97</v>
-      </c>
-      <c r="U172" s="37" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="173" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12866,10 +12866,10 @@
         <v>22</v>
       </c>
       <c r="T176" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U176" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="177" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12996,10 +12996,10 @@
         <v>22</v>
       </c>
       <c r="T178" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U178" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="179" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13122,10 +13122,10 @@
         <v>23</v>
       </c>
       <c r="T180" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U180" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="181" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13185,10 +13185,10 @@
         <v>23</v>
       </c>
       <c r="T181" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U181" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="182" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13248,10 +13248,10 @@
         <v>22</v>
       </c>
       <c r="T182" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U182" s="37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="183" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13374,10 +13374,10 @@
         <v>22</v>
       </c>
       <c r="T184" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U184" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="185" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13437,10 +13437,10 @@
         <v>23</v>
       </c>
       <c r="T185" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U185" s="37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="186" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13500,10 +13500,10 @@
         <v>22</v>
       </c>
       <c r="T186" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U186" s="37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="187" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13563,10 +13563,10 @@
         <v>22</v>
       </c>
       <c r="T187" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U187" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="188" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13577,7 +13577,7 @@
         <v>44</v>
       </c>
       <c r="C188" s="32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D188" s="32" t="s">
         <v>22</v>
@@ -13626,10 +13626,10 @@
         <v>22</v>
       </c>
       <c r="T188" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U188" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="189" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13689,10 +13689,10 @@
         <v>23</v>
       </c>
       <c r="T189" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U189" s="37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="190" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13754,10 +13754,10 @@
         <v>23</v>
       </c>
       <c r="T190" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U190" s="37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="191" spans="1:21" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13795,7 +13795,7 @@
         <v>28</v>
       </c>
       <c r="L191" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M191" s="40">
         <v>123</v>
@@ -13860,7 +13860,7 @@
         <v>22</v>
       </c>
       <c r="L192" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M192" s="40">
         <v>115</v>
@@ -13884,10 +13884,10 @@
         <v>22</v>
       </c>
       <c r="T192" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U192" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="193" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13898,7 +13898,7 @@
         <v>45</v>
       </c>
       <c r="C193" s="41" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D193" s="41" t="s">
         <v>22</v>
@@ -13925,7 +13925,7 @@
         <v>27</v>
       </c>
       <c r="L193" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M193" s="40">
         <v>114</v>
@@ -13949,10 +13949,10 @@
         <v>22</v>
       </c>
       <c r="T193" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U193" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="194" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13990,7 +13990,7 @@
         <v>22</v>
       </c>
       <c r="L194" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M194" s="40">
         <v>116</v>
@@ -14014,10 +14014,10 @@
         <v>22</v>
       </c>
       <c r="T194" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U194" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="195" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14079,10 +14079,10 @@
         <v>22</v>
       </c>
       <c r="T195" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U195" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="196" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14120,7 +14120,7 @@
         <v>23</v>
       </c>
       <c r="L196" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M196" s="40">
         <v>112</v>
@@ -14144,10 +14144,10 @@
         <v>22</v>
       </c>
       <c r="T196" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U196" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="197" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14209,10 +14209,10 @@
         <v>22</v>
       </c>
       <c r="T197" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U197" s="37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="198" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14250,7 +14250,7 @@
         <v>28</v>
       </c>
       <c r="L198" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M198" s="40">
         <v>110</v>
@@ -14339,10 +14339,10 @@
         <v>22</v>
       </c>
       <c r="T199" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U199" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="200" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14404,10 +14404,10 @@
         <v>22</v>
       </c>
       <c r="T200" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="U200" s="37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="201" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14418,7 +14418,7 @@
         <v>44</v>
       </c>
       <c r="C201" s="41" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D201" s="41" t="s">
         <v>22</v>
@@ -14445,7 +14445,7 @@
         <v>19</v>
       </c>
       <c r="L201" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M201" s="40">
         <v>111</v>
@@ -14469,10 +14469,10 @@
         <v>22</v>
       </c>
       <c r="T201" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U201" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="202" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14510,7 +14510,7 @@
         <v>28</v>
       </c>
       <c r="L202" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M202" s="40">
         <v>128</v>
@@ -14534,10 +14534,10 @@
         <v>23</v>
       </c>
       <c r="T202" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U202" s="37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="203" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14548,7 +14548,7 @@
         <v>44</v>
       </c>
       <c r="C203" s="41" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D203" s="41" t="s">
         <v>23</v>
@@ -14575,7 +14575,7 @@
         <v>21</v>
       </c>
       <c r="L203" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M203" s="40">
         <v>115</v>
@@ -14599,10 +14599,10 @@
         <v>23</v>
       </c>
       <c r="T203" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U203" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="204" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14640,7 +14640,7 @@
         <v>23</v>
       </c>
       <c r="L204" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M204" s="40">
         <v>125</v>
@@ -14705,7 +14705,7 @@
         <v>30</v>
       </c>
       <c r="L205" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M205" s="40">
         <v>110</v>
@@ -14729,10 +14729,10 @@
         <v>22</v>
       </c>
       <c r="T205" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U205" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="206" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14770,7 +14770,7 @@
         <v>22</v>
       </c>
       <c r="L206" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M206" s="40">
         <v>115</v>
@@ -14794,10 +14794,10 @@
         <v>22</v>
       </c>
       <c r="T206" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U206" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="207" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14835,7 +14835,7 @@
         <v>24</v>
       </c>
       <c r="L207" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M207" s="40">
         <v>116</v>
@@ -14900,7 +14900,7 @@
         <v>24</v>
       </c>
       <c r="L208" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M208" s="40">
         <v>109</v>
@@ -14965,7 +14965,7 @@
         <v>21</v>
       </c>
       <c r="L209" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M209" s="40">
         <v>116</v>
@@ -15030,7 +15030,7 @@
         <v>21</v>
       </c>
       <c r="L210" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M210" s="40">
         <v>132</v>
@@ -15054,10 +15054,10 @@
         <v>23</v>
       </c>
       <c r="T210" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U210" s="37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="211" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15068,7 +15068,7 @@
         <v>45</v>
       </c>
       <c r="C211" s="41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D211" s="41" t="s">
         <v>22</v>
@@ -15095,7 +15095,7 @@
         <v>20</v>
       </c>
       <c r="L211" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M211" s="40">
         <v>115</v>
@@ -15133,7 +15133,7 @@
         <v>46</v>
       </c>
       <c r="C212" s="41" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D212" s="41" t="s">
         <v>22</v>
@@ -15160,7 +15160,7 @@
         <v>22</v>
       </c>
       <c r="L212" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M212" s="40">
         <v>112</v>
@@ -15184,10 +15184,10 @@
         <v>23</v>
       </c>
       <c r="T212" s="38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U212" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="213" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15225,7 +15225,7 @@
         <v>23</v>
       </c>
       <c r="L213" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M213" s="40">
         <v>125</v>
@@ -15249,10 +15249,10 @@
         <v>23</v>
       </c>
       <c r="T213" s="38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U213" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="214" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15278,7 +15278,7 @@
         <v>296</v>
       </c>
       <c r="H214" s="41" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I214" s="41" t="s">
         <v>20</v>
@@ -15290,7 +15290,7 @@
         <v>27</v>
       </c>
       <c r="L214" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M214" s="40">
         <v>131</v>
@@ -15314,10 +15314,10 @@
         <v>22</v>
       </c>
       <c r="T214" s="38" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="U214" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="215" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15355,7 +15355,7 @@
         <v>23</v>
       </c>
       <c r="L215" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M215" s="40">
         <v>111</v>
@@ -15379,10 +15379,10 @@
         <v>22</v>
       </c>
       <c r="T215" s="38" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="U215" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="216" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15420,7 +15420,7 @@
         <v>27</v>
       </c>
       <c r="L216" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M216" s="40">
         <v>130</v>
@@ -15444,10 +15444,10 @@
         <v>22</v>
       </c>
       <c r="T216" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="U216" s="41" t="s">
         <v>97</v>
-      </c>
-      <c r="U216" s="41" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="217" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15485,7 +15485,7 @@
         <v>24</v>
       </c>
       <c r="L217" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M217" s="40">
         <v>124</v>
@@ -15509,10 +15509,10 @@
         <v>22</v>
       </c>
       <c r="T217" s="38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U217" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="218" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15523,7 +15523,7 @@
         <v>46</v>
       </c>
       <c r="C218" s="41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D218" s="41" t="s">
         <v>23</v>
@@ -15550,7 +15550,7 @@
         <v>21</v>
       </c>
       <c r="L218" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M218" s="40">
         <v>113</v>
@@ -15574,10 +15574,10 @@
         <v>23</v>
       </c>
       <c r="T218" s="38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U218" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="219" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15615,7 +15615,7 @@
         <v>25</v>
       </c>
       <c r="L219" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M219" s="40">
         <v>116</v>
@@ -15639,10 +15639,10 @@
         <v>22</v>
       </c>
       <c r="T219" s="38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U219" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="220" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15680,7 +15680,7 @@
         <v>26</v>
       </c>
       <c r="L220" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M220" s="40">
         <v>131</v>
@@ -15704,10 +15704,10 @@
         <v>22</v>
       </c>
       <c r="T220" s="38" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="U220" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="221" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15745,7 +15745,7 @@
         <v>23</v>
       </c>
       <c r="L221" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M221" s="40">
         <v>115</v>
@@ -15769,10 +15769,10 @@
         <v>23</v>
       </c>
       <c r="T221" s="38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U221" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="222" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15783,7 +15783,7 @@
         <v>45</v>
       </c>
       <c r="C222" s="41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D222" s="41" t="s">
         <v>22</v>
@@ -15810,7 +15810,7 @@
         <v>27</v>
       </c>
       <c r="L222" s="39" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M222" s="40">
         <v>113</v>
@@ -15834,10 +15834,10 @@
         <v>22</v>
       </c>
       <c r="T222" s="38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U222" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="223" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15875,7 +15875,7 @@
         <v>24</v>
       </c>
       <c r="L223" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M223" s="40">
         <v>134</v>
@@ -15899,10 +15899,10 @@
         <v>22</v>
       </c>
       <c r="T223" s="38" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="U223" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="224" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15940,7 +15940,7 @@
         <v>22</v>
       </c>
       <c r="L224" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M224" s="40">
         <v>114</v>
@@ -15964,10 +15964,10 @@
         <v>22</v>
       </c>
       <c r="T224" s="38" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="U224" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="225" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16005,7 +16005,7 @@
         <v>23</v>
       </c>
       <c r="L225" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M225" s="40">
         <v>120</v>
@@ -16070,7 +16070,7 @@
         <v>28</v>
       </c>
       <c r="L226" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M226" s="40">
         <v>117</v>
@@ -16135,7 +16135,7 @@
         <v>22</v>
       </c>
       <c r="L227" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M227" s="40">
         <v>116</v>
@@ -16159,10 +16159,10 @@
         <v>22</v>
       </c>
       <c r="T227" s="38" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="U227" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="228" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16200,7 +16200,7 @@
         <v>26</v>
       </c>
       <c r="L228" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M228" s="40">
         <v>130</v>
@@ -16224,10 +16224,10 @@
         <v>22</v>
       </c>
       <c r="T228" s="38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U228" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="229" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16265,7 +16265,7 @@
         <v>19</v>
       </c>
       <c r="L229" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M229" s="40">
         <v>111</v>
@@ -16289,10 +16289,10 @@
         <v>23</v>
       </c>
       <c r="T229" s="38" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="U229" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="230" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16330,7 +16330,7 @@
         <v>25</v>
       </c>
       <c r="L230" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M230" s="40">
         <v>137</v>
@@ -16354,10 +16354,10 @@
         <v>22</v>
       </c>
       <c r="T230" s="38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U230" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="231" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16395,7 +16395,7 @@
         <v>20</v>
       </c>
       <c r="L231" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M231" s="40">
         <v>123</v>
@@ -16419,10 +16419,10 @@
         <v>22</v>
       </c>
       <c r="T231" s="38" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="U231" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="232" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16460,7 +16460,7 @@
         <v>20</v>
       </c>
       <c r="L232" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M232" s="40">
         <v>124</v>
@@ -16484,10 +16484,10 @@
         <v>23</v>
       </c>
       <c r="T232" s="38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U232" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="233" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16525,7 +16525,7 @@
         <v>25</v>
       </c>
       <c r="L233" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M233" s="40">
         <v>123</v>
@@ -16549,10 +16549,10 @@
         <v>23</v>
       </c>
       <c r="T233" s="38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U233" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="234" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16590,7 +16590,7 @@
         <v>29</v>
       </c>
       <c r="L234" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M234" s="40">
         <v>113</v>
@@ -16614,10 +16614,10 @@
         <v>22</v>
       </c>
       <c r="T234" s="38" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="U234" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="235" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16655,7 +16655,7 @@
         <v>27</v>
       </c>
       <c r="L235" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M235" s="40">
         <v>121</v>
@@ -16679,10 +16679,10 @@
         <v>22</v>
       </c>
       <c r="T235" s="38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U235" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="236" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16720,7 +16720,7 @@
         <v>25</v>
       </c>
       <c r="L236" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M236" s="40">
         <v>116</v>
@@ -16744,10 +16744,10 @@
         <v>22</v>
       </c>
       <c r="T236" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U236" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="237" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16785,7 +16785,7 @@
         <v>22</v>
       </c>
       <c r="L237" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M237" s="40">
         <v>135</v>
@@ -16915,7 +16915,7 @@
         <v>30</v>
       </c>
       <c r="L239" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M239" s="40">
         <v>115</v>
@@ -16939,10 +16939,10 @@
         <v>22</v>
       </c>
       <c r="T239" s="39" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U239" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="240" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16980,7 +16980,7 @@
         <v>26</v>
       </c>
       <c r="L240" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M240" s="40">
         <v>121</v>
@@ -17069,10 +17069,10 @@
         <v>23</v>
       </c>
       <c r="T241" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U241" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="242" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17110,7 +17110,7 @@
         <v>21</v>
       </c>
       <c r="L242" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M242" s="40">
         <v>138</v>
@@ -17175,7 +17175,7 @@
         <v>21</v>
       </c>
       <c r="L243" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M243" s="40">
         <v>129</v>
@@ -17199,10 +17199,10 @@
         <v>22</v>
       </c>
       <c r="T243" s="39" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U243" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="244" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17240,7 +17240,7 @@
         <v>27</v>
       </c>
       <c r="L244" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M244" s="40">
         <v>130</v>
@@ -17264,10 +17264,10 @@
         <v>22</v>
       </c>
       <c r="T244" s="39" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U244" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="245" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17305,7 +17305,7 @@
         <v>26</v>
       </c>
       <c r="L245" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M245" s="40">
         <v>118</v>
@@ -17329,10 +17329,10 @@
         <v>22</v>
       </c>
       <c r="T245" s="39" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U245" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="246" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17370,7 +17370,7 @@
         <v>29</v>
       </c>
       <c r="L246" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M246" s="40">
         <v>110</v>
@@ -17394,10 +17394,10 @@
         <v>22</v>
       </c>
       <c r="T246" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U246" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="247" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17435,7 +17435,7 @@
         <v>29</v>
       </c>
       <c r="L247" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M247" s="40">
         <v>112</v>
@@ -17459,10 +17459,10 @@
         <v>22</v>
       </c>
       <c r="T247" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U247" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="248" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17500,7 +17500,7 @@
         <v>25</v>
       </c>
       <c r="L248" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M248" s="40">
         <v>117</v>
@@ -17524,10 +17524,10 @@
         <v>22</v>
       </c>
       <c r="T248" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U248" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="249" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17565,7 +17565,7 @@
         <v>25</v>
       </c>
       <c r="L249" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M249" s="40">
         <v>111</v>
@@ -17630,7 +17630,7 @@
         <v>21</v>
       </c>
       <c r="L250" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M250" s="40">
         <v>115</v>
@@ -17668,7 +17668,7 @@
         <v>25</v>
       </c>
       <c r="C251" s="41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D251" s="41" t="s">
         <v>22</v>
@@ -17719,10 +17719,10 @@
         <v>22</v>
       </c>
       <c r="T251" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U251" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="252" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17760,7 +17760,7 @@
         <v>20</v>
       </c>
       <c r="L252" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M252" s="40">
         <v>110</v>
@@ -17784,10 +17784,10 @@
         <v>22</v>
       </c>
       <c r="T252" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U252" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="253" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17798,7 +17798,7 @@
         <v>45</v>
       </c>
       <c r="C253" s="41" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D253" s="41" t="s">
         <v>23</v>
@@ -17825,7 +17825,7 @@
         <v>20</v>
       </c>
       <c r="L253" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M253" s="40">
         <v>112</v>
@@ -17849,10 +17849,10 @@
         <v>23</v>
       </c>
       <c r="T253" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U253" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="254" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17863,7 +17863,7 @@
         <v>45</v>
       </c>
       <c r="C254" s="41" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D254" s="41" t="s">
         <v>22</v>
@@ -17914,10 +17914,10 @@
         <v>22</v>
       </c>
       <c r="T254" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U254" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="255" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17928,7 +17928,7 @@
         <v>46</v>
       </c>
       <c r="C255" s="41" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D255" s="41" t="s">
         <v>23</v>
@@ -17979,10 +17979,10 @@
         <v>23</v>
       </c>
       <c r="T255" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U255" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="256" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17993,7 +17993,7 @@
         <v>44</v>
       </c>
       <c r="C256" s="41" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D256" s="41" t="s">
         <v>22</v>
@@ -18020,7 +18020,7 @@
         <v>24</v>
       </c>
       <c r="L256" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M256" s="40">
         <v>117</v>
@@ -18044,10 +18044,10 @@
         <v>22</v>
       </c>
       <c r="T256" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U256" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="257" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18073,7 +18073,7 @@
         <v>266</v>
       </c>
       <c r="H257" s="41" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I257" s="41" t="s">
         <v>24</v>
@@ -18085,7 +18085,7 @@
         <v>23</v>
       </c>
       <c r="L257" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M257" s="40">
         <v>117</v>
@@ -18150,7 +18150,7 @@
         <v>22</v>
       </c>
       <c r="L258" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M258" s="40">
         <v>121</v>
@@ -18174,10 +18174,10 @@
         <v>22</v>
       </c>
       <c r="T258" s="39" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U258" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="259" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18304,10 +18304,10 @@
         <v>22</v>
       </c>
       <c r="T260" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U260" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="261" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18369,10 +18369,10 @@
         <v>23</v>
       </c>
       <c r="T261" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U261" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="262" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18410,7 +18410,7 @@
         <v>18</v>
       </c>
       <c r="L262" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M262" s="40">
         <v>113</v>
@@ -18434,10 +18434,10 @@
         <v>22</v>
       </c>
       <c r="T262" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U262" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="263" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18475,7 +18475,7 @@
         <v>20</v>
       </c>
       <c r="L263" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M263" s="40">
         <v>119</v>
@@ -18499,10 +18499,10 @@
         <v>22</v>
       </c>
       <c r="T263" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U263" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="264" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18540,7 +18540,7 @@
         <v>28</v>
       </c>
       <c r="L264" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M264" s="40">
         <v>114</v>
@@ -18670,7 +18670,7 @@
         <v>27</v>
       </c>
       <c r="L266" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M266" s="40">
         <v>125</v>
@@ -18694,10 +18694,10 @@
         <v>22</v>
       </c>
       <c r="T266" s="39" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U266" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="267" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18759,10 +18759,10 @@
         <v>23</v>
       </c>
       <c r="T267" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U267" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="268" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18773,7 +18773,7 @@
         <v>45</v>
       </c>
       <c r="C268" s="41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D268" s="41" t="s">
         <v>22</v>
@@ -18800,7 +18800,7 @@
         <v>21</v>
       </c>
       <c r="L268" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M268" s="40">
         <v>138</v>
@@ -18824,10 +18824,10 @@
         <v>23</v>
       </c>
       <c r="T268" s="39" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U268" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="269" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18865,7 +18865,7 @@
         <v>31</v>
       </c>
       <c r="L269" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M269" s="40">
         <v>117</v>
@@ -18889,10 +18889,10 @@
         <v>22</v>
       </c>
       <c r="T269" s="39" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U269" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="270" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18930,7 +18930,7 @@
         <v>23</v>
       </c>
       <c r="L270" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M270" s="40">
         <v>129</v>
@@ -18954,10 +18954,10 @@
         <v>23</v>
       </c>
       <c r="T270" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U270" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="271" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18995,7 +18995,7 @@
         <v>21</v>
       </c>
       <c r="L271" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M271" s="40">
         <v>108</v>
@@ -19019,10 +19019,10 @@
         <v>22</v>
       </c>
       <c r="T271" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U271" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="272" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19060,7 +19060,7 @@
         <v>24</v>
       </c>
       <c r="L272" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M272" s="40">
         <v>128</v>
@@ -19084,10 +19084,10 @@
         <v>22</v>
       </c>
       <c r="T272" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U272" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="273" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19125,7 +19125,7 @@
         <v>21</v>
       </c>
       <c r="L273" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M273" s="40">
         <v>138</v>
@@ -19149,10 +19149,10 @@
         <v>22</v>
       </c>
       <c r="T273" s="39" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U273" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="274" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19190,7 +19190,7 @@
         <v>22</v>
       </c>
       <c r="L274" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M274" s="40">
         <v>128</v>
@@ -19214,10 +19214,10 @@
         <v>22</v>
       </c>
       <c r="T274" s="39" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U274" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="275" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19255,7 +19255,7 @@
         <v>27</v>
       </c>
       <c r="L275" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M275" s="40">
         <v>131</v>
@@ -19279,10 +19279,10 @@
         <v>22</v>
       </c>
       <c r="T275" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U275" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="276" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19320,7 +19320,7 @@
         <v>19</v>
       </c>
       <c r="L276" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M276" s="40">
         <v>124</v>
@@ -19344,10 +19344,10 @@
         <v>23</v>
       </c>
       <c r="T276" s="39" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U276" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="277" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19385,7 +19385,7 @@
         <v>21</v>
       </c>
       <c r="L277" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M277" s="40">
         <v>109</v>
@@ -19409,10 +19409,10 @@
         <v>22</v>
       </c>
       <c r="T277" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U277" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="278" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19450,7 +19450,7 @@
         <v>26</v>
       </c>
       <c r="L278" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M278" s="40">
         <v>123</v>
@@ -19474,10 +19474,10 @@
         <v>22</v>
       </c>
       <c r="T278" s="39" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U278" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="279" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19515,7 +19515,7 @@
         <v>35</v>
       </c>
       <c r="L279" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M279" s="40">
         <v>109</v>
@@ -19539,10 +19539,10 @@
         <v>22</v>
       </c>
       <c r="T279" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U279" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="280" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19604,10 +19604,10 @@
         <v>23</v>
       </c>
       <c r="T280" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U280" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="281" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19669,10 +19669,10 @@
         <v>23</v>
       </c>
       <c r="T281" s="39" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U281" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="282" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19710,7 +19710,7 @@
         <v>23</v>
       </c>
       <c r="L282" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M282" s="40">
         <v>119</v>
@@ -19734,10 +19734,10 @@
         <v>22</v>
       </c>
       <c r="T282" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U282" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="283" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19775,7 +19775,7 @@
         <v>19</v>
       </c>
       <c r="L283" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M283" s="40">
         <v>115</v>
@@ -19799,10 +19799,10 @@
         <v>23</v>
       </c>
       <c r="T283" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U283" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="284" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19840,7 +19840,7 @@
         <v>23</v>
       </c>
       <c r="L284" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M284" s="40">
         <v>110</v>
@@ -19905,7 +19905,7 @@
         <v>25</v>
       </c>
       <c r="L285" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M285" s="40">
         <v>114</v>
@@ -19929,10 +19929,10 @@
         <v>23</v>
       </c>
       <c r="T285" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U285" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="286" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19970,7 +19970,7 @@
         <v>19</v>
       </c>
       <c r="L286" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M286" s="40">
         <v>119</v>
@@ -20035,7 +20035,7 @@
         <v>27</v>
       </c>
       <c r="L287" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M287" s="40">
         <v>123</v>
@@ -20100,7 +20100,7 @@
         <v>25</v>
       </c>
       <c r="L288" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M288" s="40">
         <v>130</v>
@@ -20124,10 +20124,10 @@
         <v>22</v>
       </c>
       <c r="T288" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U288" s="41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="289" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20165,7 +20165,7 @@
         <v>20</v>
       </c>
       <c r="L289" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M289" s="40">
         <v>114</v>
@@ -20189,10 +20189,10 @@
         <v>23</v>
       </c>
       <c r="T289" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U289" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="290" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20230,7 +20230,7 @@
         <v>21</v>
       </c>
       <c r="L290" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M290" s="40">
         <v>135</v>
@@ -20254,10 +20254,10 @@
         <v>23</v>
       </c>
       <c r="T290" s="39" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U290" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="291" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20295,7 +20295,7 @@
         <v>21</v>
       </c>
       <c r="L291" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M291" s="40">
         <v>113</v>
@@ -20360,7 +20360,7 @@
         <v>26</v>
       </c>
       <c r="L292" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M292" s="40">
         <v>111</v>
@@ -20449,10 +20449,10 @@
         <v>22</v>
       </c>
       <c r="T293" s="39" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U293" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="294" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20463,7 +20463,7 @@
         <v>45</v>
       </c>
       <c r="C294" s="41" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D294" s="41" t="s">
         <v>22</v>
@@ -20514,10 +20514,10 @@
         <v>22</v>
       </c>
       <c r="T294" s="39" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U294" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="295" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20555,7 +20555,7 @@
         <v>29</v>
       </c>
       <c r="L295" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M295" s="40">
         <v>119</v>
@@ -20579,10 +20579,10 @@
         <v>22</v>
       </c>
       <c r="T295" s="39" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U295" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="296" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20593,7 +20593,7 @@
         <v>45</v>
       </c>
       <c r="C296" s="41" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D296" s="41" t="s">
         <v>22</v>
@@ -20620,7 +20620,7 @@
         <v>33</v>
       </c>
       <c r="L296" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M296" s="40">
         <v>111</v>
@@ -20644,10 +20644,10 @@
         <v>22</v>
       </c>
       <c r="T296" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U296" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="297" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20685,7 +20685,7 @@
         <v>23</v>
       </c>
       <c r="L297" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M297" s="40">
         <v>133</v>
@@ -20709,10 +20709,10 @@
         <v>22</v>
       </c>
       <c r="T297" s="39" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U297" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="298" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20723,7 +20723,7 @@
         <v>45</v>
       </c>
       <c r="C298" s="41" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D298" s="41" t="s">
         <v>22</v>
@@ -20774,10 +20774,10 @@
         <v>23</v>
       </c>
       <c r="T298" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="U298" s="41" t="s">
         <v>97</v>
-      </c>
-      <c r="U298" s="41" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="299" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20788,7 +20788,7 @@
         <v>46</v>
       </c>
       <c r="C299" s="41" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D299" s="41" t="s">
         <v>23</v>
@@ -20839,10 +20839,10 @@
         <v>23</v>
       </c>
       <c r="T299" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U299" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="300" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20880,7 +20880,7 @@
         <v>21</v>
       </c>
       <c r="L300" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M300" s="40">
         <v>117</v>
@@ -20904,10 +20904,10 @@
         <v>22</v>
       </c>
       <c r="T300" s="39" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U300" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="301" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20945,7 +20945,7 @@
         <v>31</v>
       </c>
       <c r="L301" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M301" s="40">
         <v>108</v>
@@ -20969,10 +20969,10 @@
         <v>22</v>
       </c>
       <c r="T301" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="U301" s="41" t="s">
         <v>97</v>
-      </c>
-      <c r="U301" s="41" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="302" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21010,7 +21010,7 @@
         <v>30</v>
       </c>
       <c r="L302" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M302" s="40">
         <v>108</v>
@@ -21034,10 +21034,10 @@
         <v>23</v>
       </c>
       <c r="T302" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U302" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="303" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21140,7 +21140,7 @@
         <v>30</v>
       </c>
       <c r="L304" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M304" s="40">
         <v>128</v>
@@ -21164,10 +21164,10 @@
         <v>23</v>
       </c>
       <c r="T304" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U304" s="41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="305" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21205,7 +21205,7 @@
         <v>22</v>
       </c>
       <c r="L305" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M305" s="40">
         <v>111</v>
@@ -21229,10 +21229,10 @@
         <v>22</v>
       </c>
       <c r="T305" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U305" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="306" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21270,7 +21270,7 @@
         <v>20</v>
       </c>
       <c r="L306" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M306" s="40">
         <v>110</v>
@@ -21294,10 +21294,10 @@
         <v>23</v>
       </c>
       <c r="T306" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U306" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="307" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21308,7 +21308,7 @@
         <v>25</v>
       </c>
       <c r="C307" s="41" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D307" s="41" t="s">
         <v>23</v>
@@ -21359,10 +21359,10 @@
         <v>23</v>
       </c>
       <c r="T307" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U307" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="308" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21400,7 +21400,7 @@
         <v>24</v>
       </c>
       <c r="L308" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M308" s="40">
         <v>109</v>
@@ -21424,10 +21424,10 @@
         <v>23</v>
       </c>
       <c r="T308" s="39" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U308" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="309" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21465,7 +21465,7 @@
         <v>24</v>
       </c>
       <c r="L309" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M309" s="40">
         <v>118</v>
@@ -21489,10 +21489,10 @@
         <v>22</v>
       </c>
       <c r="T309" s="39" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U309" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="310" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21530,7 +21530,7 @@
         <v>26</v>
       </c>
       <c r="L310" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M310" s="40">
         <v>115</v>
@@ -21554,10 +21554,10 @@
         <v>23</v>
       </c>
       <c r="T310" s="39" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U310" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="311" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21619,10 +21619,10 @@
         <v>22</v>
       </c>
       <c r="T311" s="39" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U311" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="312" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21660,7 +21660,7 @@
         <v>23</v>
       </c>
       <c r="L312" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M312" s="40">
         <v>108</v>
@@ -21725,7 +21725,7 @@
         <v>26</v>
       </c>
       <c r="L313" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M313" s="40">
         <v>109</v>
@@ -21749,10 +21749,10 @@
         <v>23</v>
       </c>
       <c r="T313" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U313" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="314" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21790,7 +21790,7 @@
         <v>19</v>
       </c>
       <c r="L314" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M314" s="40">
         <v>121</v>
@@ -21814,10 +21814,10 @@
         <v>23</v>
       </c>
       <c r="T314" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U314" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="315" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21855,7 +21855,7 @@
         <v>31</v>
       </c>
       <c r="L315" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M315" s="40">
         <v>112</v>
@@ -21879,10 +21879,10 @@
         <v>23</v>
       </c>
       <c r="T315" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U315" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="316" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21920,7 +21920,7 @@
         <v>25</v>
       </c>
       <c r="L316" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M316" s="40">
         <v>130</v>
@@ -21944,10 +21944,10 @@
         <v>22</v>
       </c>
       <c r="T316" s="39" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="U316" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="317" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21958,7 +21958,7 @@
         <v>46</v>
       </c>
       <c r="C317" s="41" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D317" s="41" t="s">
         <v>22</v>
@@ -21985,7 +21985,7 @@
         <v>22</v>
       </c>
       <c r="L317" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M317" s="40">
         <v>120</v>
@@ -22050,7 +22050,7 @@
         <v>31</v>
       </c>
       <c r="L318" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M318" s="40">
         <v>111</v>
@@ -22115,7 +22115,7 @@
         <v>27</v>
       </c>
       <c r="L319" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M319" s="40">
         <v>127</v>
@@ -22139,10 +22139,10 @@
         <v>22</v>
       </c>
       <c r="T319" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U319" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -22154,6 +22154,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Modified0 xmlns="4233fc49-3339-4531-8895-cee7bd229291" xsi:nil="true"/>
@@ -22164,15 +22173,6 @@
     <TaxCatchAll xmlns="c93905bf-b08c-430b-8630-76f4d352397a" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22408,6 +22408,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72D2E48A-B6B0-4C08-823F-77245DFC5E24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E17C91B-18DD-4079-ACCD-B0D1EF6495F4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -22420,14 +22428,6 @@
     <ds:schemaRef ds:uri="c93905bf-b08c-430b-8630-76f4d352397a"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72D2E48A-B6B0-4C08-823F-77245DFC5E24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/poas/poas19.xlsx
+++ b/data/poas/poas19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaime/Desktop/poas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3564D66C-9F7A-3B4A-94E2-978706456FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23755332-F4B6-774E-B274-A65187E51502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="21100" tabRatio="891" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="data" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$V$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$V$319</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3715" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3715" uniqueCount="141">
   <si>
     <t>AB</t>
   </si>
@@ -366,9 +366,6 @@
   </si>
   <si>
     <t>31B</t>
-  </si>
-  <si>
-    <t>DisT</t>
   </si>
   <si>
     <t>ADMIN</t>
@@ -1626,14 +1623,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4">
+  <sheetPr codeName="Sheet4" filterMode="1">
     <tabColor indexed="20"/>
   </sheetPr>
   <dimension ref="A1:V319"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A53"/>
+      <selection pane="bottomLeft" activeCell="T137" sqref="T137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1665,7 +1662,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>12</v>
@@ -1677,7 +1674,7 @@
         <v>16</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>0</v>
@@ -1731,7 +1728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="44">
         <v>2019</v>
       </c>
@@ -1799,7 +1796,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="44">
         <v>2019</v>
       </c>
@@ -1865,7 +1862,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="44">
         <v>2019</v>
       </c>
@@ -1933,7 +1930,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="44">
         <v>2019</v>
       </c>
@@ -1999,7 +1996,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="44">
         <v>2019</v>
       </c>
@@ -2061,13 +2058,13 @@
         <v>22</v>
       </c>
       <c r="U6" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V6" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="44">
         <v>2019</v>
       </c>
@@ -2133,7 +2130,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="44">
         <v>2019</v>
       </c>
@@ -2201,7 +2198,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="44">
         <v>2019</v>
       </c>
@@ -2267,7 +2264,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="44">
         <v>2019</v>
       </c>
@@ -2333,7 +2330,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="44">
         <v>2019</v>
       </c>
@@ -2395,13 +2392,13 @@
         <v>23</v>
       </c>
       <c r="U11" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V11" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="44">
         <v>2019</v>
       </c>
@@ -2469,7 +2466,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="44">
         <v>2019</v>
       </c>
@@ -2529,13 +2526,13 @@
         <v>22</v>
       </c>
       <c r="U13" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V13" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="44">
         <v>2019</v>
       </c>
@@ -2595,13 +2592,13 @@
         <v>23</v>
       </c>
       <c r="U14" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V14" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="44">
         <v>2019</v>
       </c>
@@ -2663,13 +2660,13 @@
         <v>23</v>
       </c>
       <c r="U15" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V15" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="44">
         <v>2019</v>
       </c>
@@ -2731,13 +2728,13 @@
         <v>23</v>
       </c>
       <c r="U16" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V16" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="44">
         <v>2019</v>
       </c>
@@ -2805,7 +2802,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="44">
         <v>2019</v>
       </c>
@@ -2871,7 +2868,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="44">
         <v>2019</v>
       </c>
@@ -2937,7 +2934,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="44">
         <v>2019</v>
       </c>
@@ -3003,7 +3000,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="44">
         <v>2019</v>
       </c>
@@ -3069,7 +3066,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="44">
         <v>2019</v>
       </c>
@@ -3129,13 +3126,13 @@
         <v>23</v>
       </c>
       <c r="U22" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="44">
         <v>2019</v>
       </c>
@@ -3201,7 +3198,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="44">
         <v>2019</v>
       </c>
@@ -3267,7 +3264,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="44">
         <v>2019</v>
       </c>
@@ -3333,7 +3330,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="44">
         <v>2019</v>
       </c>
@@ -3401,7 +3398,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="44">
         <v>2019</v>
       </c>
@@ -3461,13 +3458,13 @@
         <v>22</v>
       </c>
       <c r="U27" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V27" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="44">
         <v>2019</v>
       </c>
@@ -3533,7 +3530,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="44">
         <v>2019</v>
       </c>
@@ -3599,7 +3596,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="44">
         <v>2019</v>
       </c>
@@ -3659,13 +3656,13 @@
         <v>22</v>
       </c>
       <c r="U30" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V30" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="44">
         <v>2019</v>
       </c>
@@ -3725,13 +3722,13 @@
         <v>23</v>
       </c>
       <c r="U31" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V31" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="44">
         <v>2019</v>
       </c>
@@ -3799,7 +3796,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="44">
         <v>2019</v>
       </c>
@@ -3865,7 +3862,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="44">
         <v>2019</v>
       </c>
@@ -3931,7 +3928,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="44">
         <v>2019</v>
       </c>
@@ -3997,7 +3994,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="44">
         <v>2019</v>
       </c>
@@ -4063,7 +4060,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="44">
         <v>2019</v>
       </c>
@@ -4131,7 +4128,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="44">
         <v>2019</v>
       </c>
@@ -4199,7 +4196,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="44">
         <v>2019</v>
       </c>
@@ -4265,7 +4262,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="44">
         <v>2019</v>
       </c>
@@ -4333,7 +4330,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="44">
         <v>2019</v>
       </c>
@@ -4401,7 +4398,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="44">
         <v>2019</v>
       </c>
@@ -4467,7 +4464,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="44">
         <v>2019</v>
       </c>
@@ -4527,13 +4524,13 @@
         <v>22</v>
       </c>
       <c r="U43" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V43" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="44">
         <v>2019</v>
       </c>
@@ -4593,13 +4590,13 @@
         <v>23</v>
       </c>
       <c r="U44" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V44" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="44">
         <v>2019</v>
       </c>
@@ -4665,7 +4662,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="44">
         <v>2019</v>
       </c>
@@ -4727,13 +4724,13 @@
         <v>22</v>
       </c>
       <c r="U46" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V46" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="44">
         <v>2019</v>
       </c>
@@ -4799,7 +4796,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="44">
         <v>2019</v>
       </c>
@@ -4859,13 +4856,13 @@
         <v>23</v>
       </c>
       <c r="U48" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V48" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="44">
         <v>2019</v>
       </c>
@@ -4933,7 +4930,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="44">
         <v>2019</v>
       </c>
@@ -5001,7 +4998,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="44">
         <v>2019</v>
       </c>
@@ -5069,7 +5066,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="44">
         <v>2019</v>
       </c>
@@ -5137,7 +5134,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="44">
         <v>2019</v>
       </c>
@@ -5199,13 +5196,13 @@
         <v>22</v>
       </c>
       <c r="U53" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V53" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="44">
         <v>2019</v>
       </c>
@@ -5265,13 +5262,13 @@
         <v>22</v>
       </c>
       <c r="U54" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V54" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="44">
         <v>2019</v>
       </c>
@@ -5337,7 +5334,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="44">
         <v>2019</v>
       </c>
@@ -5403,7 +5400,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="44">
         <v>2019</v>
       </c>
@@ -5465,13 +5462,13 @@
         <v>23</v>
       </c>
       <c r="U57" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V57" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="44">
         <v>2019</v>
       </c>
@@ -5539,7 +5536,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="44">
         <v>2019</v>
       </c>
@@ -5605,7 +5602,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="44">
         <v>2019</v>
       </c>
@@ -5673,7 +5670,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="44">
         <v>2019</v>
       </c>
@@ -5733,13 +5730,13 @@
         <v>22</v>
       </c>
       <c r="U61" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V61" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="44">
         <v>2019</v>
       </c>
@@ -5805,7 +5802,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="44">
         <v>2019</v>
       </c>
@@ -5867,13 +5864,13 @@
         <v>23</v>
       </c>
       <c r="U63" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V63" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="44">
         <v>2019</v>
       </c>
@@ -5933,13 +5930,13 @@
         <v>23</v>
       </c>
       <c r="U64" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V64" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="44">
         <v>2019</v>
       </c>
@@ -6007,7 +6004,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="44">
         <v>2019</v>
       </c>
@@ -6075,7 +6072,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="44">
         <v>2019</v>
       </c>
@@ -6141,7 +6138,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="44">
         <v>2019</v>
       </c>
@@ -6207,7 +6204,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="44">
         <v>2019</v>
       </c>
@@ -6275,7 +6272,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="44">
         <v>2019</v>
       </c>
@@ -6341,7 +6338,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="44">
         <v>2019</v>
       </c>
@@ -6407,7 +6404,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="44">
         <v>2019</v>
       </c>
@@ -6473,7 +6470,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="44">
         <v>2019</v>
       </c>
@@ -6541,7 +6538,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="44">
         <v>2019</v>
       </c>
@@ -6607,7 +6604,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="44">
         <v>2019</v>
       </c>
@@ -6673,7 +6670,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="44">
         <v>2019</v>
       </c>
@@ -6741,7 +6738,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="44">
         <v>2019</v>
       </c>
@@ -6807,7 +6804,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="44">
         <v>2019</v>
       </c>
@@ -6867,13 +6864,13 @@
         <v>23</v>
       </c>
       <c r="U78" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V78" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="44">
         <v>2019</v>
       </c>
@@ -6933,13 +6930,13 @@
         <v>23</v>
       </c>
       <c r="U79" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V79" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="44">
         <v>2019</v>
       </c>
@@ -7005,7 +7002,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="44">
         <v>2019</v>
       </c>
@@ -7071,7 +7068,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="44">
         <v>2019</v>
       </c>
@@ -7133,13 +7130,13 @@
         <v>23</v>
       </c>
       <c r="U82" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V82" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="44">
         <v>2019</v>
       </c>
@@ -7205,7 +7202,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="44">
         <v>2019</v>
       </c>
@@ -7273,7 +7270,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="44">
         <v>2019</v>
       </c>
@@ -7339,7 +7336,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="44">
         <v>2019</v>
       </c>
@@ -7407,7 +7404,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="44">
         <v>2019</v>
       </c>
@@ -7475,7 +7472,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="44">
         <v>2019</v>
       </c>
@@ -7541,7 +7538,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="44">
         <v>2019</v>
       </c>
@@ -7607,7 +7604,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="44">
         <v>2019</v>
       </c>
@@ -7675,7 +7672,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="44">
         <v>2019</v>
       </c>
@@ -7735,13 +7732,13 @@
         <v>23</v>
       </c>
       <c r="U91" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V91" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="44">
         <v>2019</v>
       </c>
@@ -7807,7 +7804,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="44">
         <v>2019</v>
       </c>
@@ -7873,7 +7870,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="44">
         <v>2019</v>
       </c>
@@ -7939,7 +7936,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="44">
         <v>2019</v>
       </c>
@@ -8005,7 +8002,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="44">
         <v>2019</v>
       </c>
@@ -8065,13 +8062,13 @@
         <v>23</v>
       </c>
       <c r="U96" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="V96" s="28" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="44">
         <v>2019</v>
       </c>
@@ -8131,13 +8128,13 @@
         <v>22</v>
       </c>
       <c r="U97" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V97" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="44">
         <v>2019</v>
       </c>
@@ -8205,7 +8202,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="44">
         <v>2019</v>
       </c>
@@ -8271,7 +8268,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="100" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="44">
         <v>2019</v>
       </c>
@@ -8337,7 +8334,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="101" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="44">
         <v>2019</v>
       </c>
@@ -8405,7 +8402,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="102" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="44">
         <v>2019</v>
       </c>
@@ -8473,7 +8470,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="103" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="44">
         <v>2019</v>
       </c>
@@ -8539,7 +8536,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="44">
         <v>2019</v>
       </c>
@@ -8601,13 +8598,13 @@
         <v>22</v>
       </c>
       <c r="U104" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V104" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="105" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="44">
         <v>2019</v>
       </c>
@@ -8673,7 +8670,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="106" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="44">
         <v>2019</v>
       </c>
@@ -8741,7 +8738,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="107" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="44">
         <v>2019</v>
       </c>
@@ -8801,13 +8798,13 @@
         <v>22</v>
       </c>
       <c r="U107" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V107" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="44">
         <v>2019</v>
       </c>
@@ -8873,7 +8870,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="109" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="44">
         <v>2019</v>
       </c>
@@ -8941,7 +8938,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="110" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="44">
         <v>2019</v>
       </c>
@@ -9009,7 +9006,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="44">
         <v>2019</v>
       </c>
@@ -9075,7 +9072,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="44">
         <v>2019</v>
       </c>
@@ -9141,7 +9138,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="113" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="44">
         <v>2019</v>
       </c>
@@ -9209,7 +9206,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="114" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="44">
         <v>2019</v>
       </c>
@@ -9275,7 +9272,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="115" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="44">
         <v>2019</v>
       </c>
@@ -9335,13 +9332,13 @@
         <v>22</v>
       </c>
       <c r="U115" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V115" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="116" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="44">
         <v>2019</v>
       </c>
@@ -9407,7 +9404,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="117" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="44">
         <v>2019</v>
       </c>
@@ -9473,7 +9470,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="118" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="44">
         <v>2019</v>
       </c>
@@ -9533,13 +9530,13 @@
         <v>23</v>
       </c>
       <c r="U118" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V118" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="119" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="44">
         <v>2019</v>
       </c>
@@ -9599,13 +9596,13 @@
         <v>22</v>
       </c>
       <c r="U119" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V119" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="120" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="44">
         <v>2019</v>
       </c>
@@ -9671,7 +9668,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="121" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="44">
         <v>2019</v>
       </c>
@@ -9737,7 +9734,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="122" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="44">
         <v>2019</v>
       </c>
@@ -9803,7 +9800,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="123" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="44">
         <v>2019</v>
       </c>
@@ -9863,13 +9860,13 @@
         <v>23</v>
       </c>
       <c r="U123" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V123" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="124" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="44">
         <v>2019</v>
       </c>
@@ -9929,13 +9926,13 @@
         <v>23</v>
       </c>
       <c r="U124" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V124" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="125" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="44">
         <v>2019</v>
       </c>
@@ -10001,7 +9998,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="126" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="44">
         <v>2019</v>
       </c>
@@ -10067,7 +10064,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="127" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="44">
         <v>2019</v>
       </c>
@@ -10127,13 +10124,13 @@
         <v>22</v>
       </c>
       <c r="U127" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="V127" s="28" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="128" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="44">
         <v>2019</v>
       </c>
@@ -10193,13 +10190,13 @@
         <v>22</v>
       </c>
       <c r="U128" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V128" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="129" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="44">
         <v>2019</v>
       </c>
@@ -10265,7 +10262,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="130" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="44">
         <v>2019</v>
       </c>
@@ -10331,7 +10328,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="131" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="44">
         <v>2019</v>
       </c>
@@ -10393,13 +10390,13 @@
         <v>22</v>
       </c>
       <c r="U131" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V131" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="132" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="44">
         <v>2019</v>
       </c>
@@ -10465,7 +10462,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="44">
         <v>2019</v>
       </c>
@@ -10525,13 +10522,13 @@
         <v>22</v>
       </c>
       <c r="U133" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V133" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="134" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="44">
         <v>2019</v>
       </c>
@@ -10597,7 +10594,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="135" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="44">
         <v>2019</v>
       </c>
@@ -10663,7 +10660,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="136" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="44">
         <v>2019</v>
       </c>
@@ -10786,16 +10783,16 @@
         <v>123</v>
       </c>
       <c r="T137" s="20" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="U137" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="V137" s="28" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="138" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="44">
         <v>2019</v>
       </c>
@@ -10857,13 +10854,13 @@
         <v>23</v>
       </c>
       <c r="U138" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V138" s="28" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="139" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="44">
         <v>2019</v>
       </c>
@@ -10931,7 +10928,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="140" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="44">
         <v>2019</v>
       </c>
@@ -10999,7 +10996,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="141" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="44">
         <v>2019</v>
       </c>
@@ -11010,7 +11007,7 @@
         <v>25</v>
       </c>
       <c r="D141" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E141" s="20" t="s">
         <v>22</v>
@@ -11067,7 +11064,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="142" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="44">
         <v>2019</v>
       </c>
@@ -11078,7 +11075,7 @@
         <v>44</v>
       </c>
       <c r="D142" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E142" s="20" t="s">
         <v>22</v>
@@ -11133,7 +11130,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="143" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="44">
         <v>2019</v>
       </c>
@@ -11201,7 +11198,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="144" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="44">
         <v>2019</v>
       </c>
@@ -11261,13 +11258,13 @@
         <v>22</v>
       </c>
       <c r="U144" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V144" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="145" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="44">
         <v>2019</v>
       </c>
@@ -11333,7 +11330,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="146" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="44">
         <v>2019</v>
       </c>
@@ -11393,13 +11390,13 @@
         <v>22</v>
       </c>
       <c r="U146" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V146" s="31" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="147" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="44">
         <v>2019</v>
       </c>
@@ -11465,7 +11462,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="148" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="44">
         <v>2019</v>
       </c>
@@ -11527,13 +11524,13 @@
         <v>23</v>
       </c>
       <c r="U148" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V148" s="31" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="149" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="44">
         <v>2019</v>
       </c>
@@ -11544,7 +11541,7 @@
         <v>46</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E149" s="12" t="s">
         <v>22</v>
@@ -11601,7 +11598,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="150" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="44">
         <v>2019</v>
       </c>
@@ -11669,7 +11666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="44">
         <v>2019</v>
       </c>
@@ -11735,7 +11732,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="152" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="44">
         <v>2019</v>
       </c>
@@ -11797,13 +11794,13 @@
         <v>22</v>
       </c>
       <c r="U152" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V152" s="31" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="153" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="44">
         <v>2019</v>
       </c>
@@ -11869,7 +11866,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="44">
         <v>2019</v>
       </c>
@@ -11929,13 +11926,13 @@
         <v>22</v>
       </c>
       <c r="U154" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V154" s="31" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="155" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="44">
         <v>2019</v>
       </c>
@@ -11995,13 +11992,13 @@
         <v>22</v>
       </c>
       <c r="U155" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V155" s="31" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="156" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="44">
         <v>2019</v>
       </c>
@@ -12069,7 +12066,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="157" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="44">
         <v>2019</v>
       </c>
@@ -12135,7 +12132,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="158" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="44">
         <v>2019</v>
       </c>
@@ -12173,7 +12170,7 @@
         <v>32</v>
       </c>
       <c r="M158" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N158" s="13">
         <v>117</v>
@@ -12197,13 +12194,13 @@
         <v>22</v>
       </c>
       <c r="U158" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V158" s="31" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="159" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="44">
         <v>2019</v>
       </c>
@@ -12265,13 +12262,13 @@
         <v>23</v>
       </c>
       <c r="U159" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V159" s="31" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="160" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="44">
         <v>2019</v>
       </c>
@@ -12337,7 +12334,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="161" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="44">
         <v>2019</v>
       </c>
@@ -12348,7 +12345,7 @@
         <v>46</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E161" s="12" t="s">
         <v>22</v>
@@ -12405,7 +12402,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="162" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="44">
         <v>2019</v>
       </c>
@@ -12465,13 +12462,13 @@
         <v>22</v>
       </c>
       <c r="U162" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V162" s="31" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="163" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="44">
         <v>2019</v>
       </c>
@@ -12537,7 +12534,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="164" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="44">
         <v>2019</v>
       </c>
@@ -12597,13 +12594,13 @@
         <v>22</v>
       </c>
       <c r="U164" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V164" s="31" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="165" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="44">
         <v>2019</v>
       </c>
@@ -12663,13 +12660,13 @@
         <v>22</v>
       </c>
       <c r="U165" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V165" s="31" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="166" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="44">
         <v>2019</v>
       </c>
@@ -12731,13 +12728,13 @@
         <v>22</v>
       </c>
       <c r="U166" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V166" s="31" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="167" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="44">
         <v>2019</v>
       </c>
@@ -12799,13 +12796,13 @@
         <v>23</v>
       </c>
       <c r="U167" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V167" s="31" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="168" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="44">
         <v>2019</v>
       </c>
@@ -12867,13 +12864,13 @@
         <v>22</v>
       </c>
       <c r="U168" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V168" s="31" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="169" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="44">
         <v>2019</v>
       </c>
@@ -12933,13 +12930,13 @@
         <v>23</v>
       </c>
       <c r="U169" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V169" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="170" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="44">
         <v>2019</v>
       </c>
@@ -13005,7 +13002,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="171" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="44">
         <v>2019</v>
       </c>
@@ -13073,7 +13070,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="172" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="44">
         <v>2019</v>
       </c>
@@ -13139,7 +13136,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="173" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="44">
         <v>2019</v>
       </c>
@@ -13207,7 +13204,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="174" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="44">
         <v>2019</v>
       </c>
@@ -13273,7 +13270,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="175" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="44">
         <v>2019</v>
       </c>
@@ -13341,7 +13338,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="176" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="44">
         <v>2019</v>
       </c>
@@ -13401,13 +13398,13 @@
         <v>22</v>
       </c>
       <c r="U176" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V176" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="177" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="44">
         <v>2019</v>
       </c>
@@ -13475,7 +13472,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="178" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="44">
         <v>2019</v>
       </c>
@@ -13537,13 +13534,13 @@
         <v>22</v>
       </c>
       <c r="U178" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V178" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="179" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="44">
         <v>2019</v>
       </c>
@@ -13609,7 +13606,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="180" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="44">
         <v>2019</v>
       </c>
@@ -13669,13 +13666,13 @@
         <v>23</v>
       </c>
       <c r="U180" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V180" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="181" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="44">
         <v>2019</v>
       </c>
@@ -13735,13 +13732,13 @@
         <v>23</v>
       </c>
       <c r="U181" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V181" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="182" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="44">
         <v>2019</v>
       </c>
@@ -13801,13 +13798,13 @@
         <v>22</v>
       </c>
       <c r="U182" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V182" s="37" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="183" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="44">
         <v>2019</v>
       </c>
@@ -13873,7 +13870,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="184" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="44">
         <v>2019</v>
       </c>
@@ -13933,13 +13930,13 @@
         <v>22</v>
       </c>
       <c r="U184" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V184" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="185" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="44">
         <v>2019</v>
       </c>
@@ -13999,13 +13996,13 @@
         <v>23</v>
       </c>
       <c r="U185" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V185" s="37" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="186" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="44">
         <v>2019</v>
       </c>
@@ -14065,13 +14062,13 @@
         <v>22</v>
       </c>
       <c r="U186" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V186" s="37" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="187" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="44">
         <v>2019</v>
       </c>
@@ -14131,13 +14128,13 @@
         <v>22</v>
       </c>
       <c r="U187" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V187" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="188" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="44">
         <v>2019</v>
       </c>
@@ -14148,7 +14145,7 @@
         <v>44</v>
       </c>
       <c r="D188" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E188" s="32" t="s">
         <v>22</v>
@@ -14197,13 +14194,13 @@
         <v>22</v>
       </c>
       <c r="U188" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V188" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="189" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="44">
         <v>2019</v>
       </c>
@@ -14269,7 +14266,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="44">
         <v>2019</v>
       </c>
@@ -14331,13 +14328,13 @@
         <v>23</v>
       </c>
       <c r="U190" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V190" s="37" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="191" spans="1:22" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:22" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="44">
         <v>2019</v>
       </c>
@@ -14375,7 +14372,7 @@
         <v>28</v>
       </c>
       <c r="M191" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N191" s="40">
         <v>123</v>
@@ -14405,7 +14402,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="192" spans="1:22" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:22" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="44">
         <v>2019</v>
       </c>
@@ -14443,7 +14440,7 @@
         <v>22</v>
       </c>
       <c r="M192" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N192" s="40">
         <v>115</v>
@@ -14467,13 +14464,13 @@
         <v>22</v>
       </c>
       <c r="U192" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V192" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="193" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="44">
         <v>2019</v>
       </c>
@@ -14484,7 +14481,7 @@
         <v>45</v>
       </c>
       <c r="D193" s="41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E193" s="41" t="s">
         <v>22</v>
@@ -14511,7 +14508,7 @@
         <v>27</v>
       </c>
       <c r="M193" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N193" s="40">
         <v>114</v>
@@ -14535,13 +14532,13 @@
         <v>22</v>
       </c>
       <c r="U193" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V193" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="194" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="44">
         <v>2019</v>
       </c>
@@ -14579,7 +14576,7 @@
         <v>22</v>
       </c>
       <c r="M194" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N194" s="40">
         <v>116</v>
@@ -14603,13 +14600,13 @@
         <v>22</v>
       </c>
       <c r="U194" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V194" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="195" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="44">
         <v>2019</v>
       </c>
@@ -14671,13 +14668,13 @@
         <v>22</v>
       </c>
       <c r="U195" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V195" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="196" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="44">
         <v>2019</v>
       </c>
@@ -14715,7 +14712,7 @@
         <v>23</v>
       </c>
       <c r="M196" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N196" s="40">
         <v>112</v>
@@ -14739,13 +14736,13 @@
         <v>22</v>
       </c>
       <c r="U196" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V196" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="197" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="44">
         <v>2019</v>
       </c>
@@ -14807,13 +14804,13 @@
         <v>22</v>
       </c>
       <c r="U197" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V197" s="37" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="198" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="44">
         <v>2019</v>
       </c>
@@ -14851,7 +14848,7 @@
         <v>28</v>
       </c>
       <c r="M198" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N198" s="40">
         <v>110</v>
@@ -14881,7 +14878,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="199" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="44">
         <v>2019</v>
       </c>
@@ -14943,13 +14940,13 @@
         <v>22</v>
       </c>
       <c r="U199" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V199" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="200" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="44">
         <v>2019</v>
       </c>
@@ -15017,7 +15014,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="201" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="44">
         <v>2019</v>
       </c>
@@ -15055,7 +15052,7 @@
         <v>19</v>
       </c>
       <c r="M201" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N201" s="40">
         <v>111</v>
@@ -15079,13 +15076,13 @@
         <v>22</v>
       </c>
       <c r="U201" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V201" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="202" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="44">
         <v>2019</v>
       </c>
@@ -15123,7 +15120,7 @@
         <v>28</v>
       </c>
       <c r="M202" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N202" s="40">
         <v>128</v>
@@ -15147,13 +15144,13 @@
         <v>23</v>
       </c>
       <c r="U202" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V202" s="37" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="203" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="44">
         <v>2019</v>
       </c>
@@ -15164,7 +15161,7 @@
         <v>44</v>
       </c>
       <c r="D203" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E203" s="41" t="s">
         <v>23</v>
@@ -15191,7 +15188,7 @@
         <v>21</v>
       </c>
       <c r="M203" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N203" s="40">
         <v>115</v>
@@ -15215,13 +15212,13 @@
         <v>23</v>
       </c>
       <c r="U203" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V203" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="204" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="44">
         <v>2019</v>
       </c>
@@ -15259,7 +15256,7 @@
         <v>23</v>
       </c>
       <c r="M204" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N204" s="40">
         <v>125</v>
@@ -15289,7 +15286,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="205" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="44">
         <v>2019</v>
       </c>
@@ -15327,7 +15324,7 @@
         <v>30</v>
       </c>
       <c r="M205" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N205" s="40">
         <v>110</v>
@@ -15351,13 +15348,13 @@
         <v>22</v>
       </c>
       <c r="U205" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V205" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="206" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="44">
         <v>2019</v>
       </c>
@@ -15395,7 +15392,7 @@
         <v>22</v>
       </c>
       <c r="M206" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N206" s="40">
         <v>115</v>
@@ -15419,13 +15416,13 @@
         <v>22</v>
       </c>
       <c r="U206" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V206" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="207" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="44">
         <v>2019</v>
       </c>
@@ -15463,7 +15460,7 @@
         <v>24</v>
       </c>
       <c r="M207" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N207" s="40">
         <v>116</v>
@@ -15493,7 +15490,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="208" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="44">
         <v>2019</v>
       </c>
@@ -15531,7 +15528,7 @@
         <v>24</v>
       </c>
       <c r="M208" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N208" s="40">
         <v>109</v>
@@ -15561,7 +15558,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="209" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="44">
         <v>2019</v>
       </c>
@@ -15599,7 +15596,7 @@
         <v>21</v>
       </c>
       <c r="M209" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N209" s="40">
         <v>116</v>
@@ -15629,7 +15626,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="210" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="44">
         <v>2019</v>
       </c>
@@ -15667,7 +15664,7 @@
         <v>21</v>
       </c>
       <c r="M210" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N210" s="40">
         <v>132</v>
@@ -15691,13 +15688,13 @@
         <v>23</v>
       </c>
       <c r="U210" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V210" s="37" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="211" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="44">
         <v>2019</v>
       </c>
@@ -15708,7 +15705,7 @@
         <v>45</v>
       </c>
       <c r="D211" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E211" s="41" t="s">
         <v>22</v>
@@ -15735,7 +15732,7 @@
         <v>20</v>
       </c>
       <c r="M211" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N211" s="40">
         <v>115</v>
@@ -15765,7 +15762,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="212" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="44">
         <v>2019</v>
       </c>
@@ -15776,7 +15773,7 @@
         <v>46</v>
       </c>
       <c r="D212" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E212" s="41" t="s">
         <v>22</v>
@@ -15803,7 +15800,7 @@
         <v>22</v>
       </c>
       <c r="M212" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N212" s="40">
         <v>112</v>
@@ -15827,13 +15824,13 @@
         <v>23</v>
       </c>
       <c r="U212" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V212" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="213" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="44">
         <v>2019</v>
       </c>
@@ -15871,7 +15868,7 @@
         <v>23</v>
       </c>
       <c r="M213" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N213" s="40">
         <v>125</v>
@@ -15895,13 +15892,13 @@
         <v>23</v>
       </c>
       <c r="U213" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V213" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="214" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="44">
         <v>2019</v>
       </c>
@@ -15927,7 +15924,7 @@
         <v>296</v>
       </c>
       <c r="I214" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J214" s="41" t="s">
         <v>20</v>
@@ -15939,7 +15936,7 @@
         <v>27</v>
       </c>
       <c r="M214" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N214" s="40">
         <v>131</v>
@@ -15963,13 +15960,13 @@
         <v>22</v>
       </c>
       <c r="U214" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V214" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="215" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="44">
         <v>2019</v>
       </c>
@@ -16007,7 +16004,7 @@
         <v>23</v>
       </c>
       <c r="M215" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N215" s="40">
         <v>111</v>
@@ -16031,13 +16028,13 @@
         <v>22</v>
       </c>
       <c r="U215" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V215" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="216" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="44">
         <v>2019</v>
       </c>
@@ -16075,7 +16072,7 @@
         <v>27</v>
       </c>
       <c r="M216" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N216" s="40">
         <v>130</v>
@@ -16105,7 +16102,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="217" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="44">
         <v>2019</v>
       </c>
@@ -16143,7 +16140,7 @@
         <v>24</v>
       </c>
       <c r="M217" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N217" s="40">
         <v>124</v>
@@ -16167,13 +16164,13 @@
         <v>22</v>
       </c>
       <c r="U217" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V217" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="218" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="44">
         <v>2019</v>
       </c>
@@ -16211,7 +16208,7 @@
         <v>21</v>
       </c>
       <c r="M218" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N218" s="40">
         <v>113</v>
@@ -16235,13 +16232,13 @@
         <v>23</v>
       </c>
       <c r="U218" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V218" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="219" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="44">
         <v>2019</v>
       </c>
@@ -16279,7 +16276,7 @@
         <v>25</v>
       </c>
       <c r="M219" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N219" s="40">
         <v>116</v>
@@ -16303,13 +16300,13 @@
         <v>22</v>
       </c>
       <c r="U219" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V219" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="220" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="44">
         <v>2019</v>
       </c>
@@ -16347,7 +16344,7 @@
         <v>26</v>
       </c>
       <c r="M220" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N220" s="40">
         <v>131</v>
@@ -16371,13 +16368,13 @@
         <v>22</v>
       </c>
       <c r="U220" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V220" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="221" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="44">
         <v>2019</v>
       </c>
@@ -16415,7 +16412,7 @@
         <v>23</v>
       </c>
       <c r="M221" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N221" s="40">
         <v>115</v>
@@ -16439,13 +16436,13 @@
         <v>23</v>
       </c>
       <c r="U221" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V221" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="222" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="44">
         <v>2019</v>
       </c>
@@ -16456,7 +16453,7 @@
         <v>45</v>
       </c>
       <c r="D222" s="41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E222" s="41" t="s">
         <v>22</v>
@@ -16483,7 +16480,7 @@
         <v>27</v>
       </c>
       <c r="M222" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N222" s="40">
         <v>113</v>
@@ -16507,13 +16504,13 @@
         <v>22</v>
       </c>
       <c r="U222" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V222" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="223" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="44">
         <v>2019</v>
       </c>
@@ -16551,7 +16548,7 @@
         <v>24</v>
       </c>
       <c r="M223" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N223" s="40">
         <v>134</v>
@@ -16575,13 +16572,13 @@
         <v>22</v>
       </c>
       <c r="U223" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V223" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="224" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="44">
         <v>2019</v>
       </c>
@@ -16619,7 +16616,7 @@
         <v>22</v>
       </c>
       <c r="M224" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N224" s="40">
         <v>114</v>
@@ -16643,13 +16640,13 @@
         <v>22</v>
       </c>
       <c r="U224" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V224" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="225" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="44">
         <v>2019</v>
       </c>
@@ -16687,7 +16684,7 @@
         <v>23</v>
       </c>
       <c r="M225" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N225" s="40">
         <v>120</v>
@@ -16717,7 +16714,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="226" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="44">
         <v>2019</v>
       </c>
@@ -16755,7 +16752,7 @@
         <v>28</v>
       </c>
       <c r="M226" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N226" s="40">
         <v>117</v>
@@ -16785,7 +16782,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="227" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="44">
         <v>2019</v>
       </c>
@@ -16823,7 +16820,7 @@
         <v>22</v>
       </c>
       <c r="M227" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N227" s="40">
         <v>116</v>
@@ -16847,13 +16844,13 @@
         <v>22</v>
       </c>
       <c r="U227" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V227" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="228" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="44">
         <v>2019</v>
       </c>
@@ -16891,7 +16888,7 @@
         <v>26</v>
       </c>
       <c r="M228" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N228" s="40">
         <v>130</v>
@@ -16915,13 +16912,13 @@
         <v>22</v>
       </c>
       <c r="U228" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V228" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="229" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="44">
         <v>2019</v>
       </c>
@@ -16959,7 +16956,7 @@
         <v>19</v>
       </c>
       <c r="M229" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N229" s="40">
         <v>111</v>
@@ -16983,13 +16980,13 @@
         <v>23</v>
       </c>
       <c r="U229" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V229" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="230" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="44">
         <v>2019</v>
       </c>
@@ -17027,7 +17024,7 @@
         <v>25</v>
       </c>
       <c r="M230" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N230" s="40">
         <v>137</v>
@@ -17051,13 +17048,13 @@
         <v>22</v>
       </c>
       <c r="U230" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V230" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="231" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="44">
         <v>2019</v>
       </c>
@@ -17095,7 +17092,7 @@
         <v>20</v>
       </c>
       <c r="M231" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N231" s="40">
         <v>123</v>
@@ -17119,13 +17116,13 @@
         <v>22</v>
       </c>
       <c r="U231" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V231" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="232" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="44">
         <v>2019</v>
       </c>
@@ -17163,7 +17160,7 @@
         <v>20</v>
       </c>
       <c r="M232" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N232" s="40">
         <v>124</v>
@@ -17187,13 +17184,13 @@
         <v>23</v>
       </c>
       <c r="U232" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V232" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="233" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="44">
         <v>2019</v>
       </c>
@@ -17231,7 +17228,7 @@
         <v>25</v>
       </c>
       <c r="M233" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N233" s="40">
         <v>123</v>
@@ -17255,13 +17252,13 @@
         <v>23</v>
       </c>
       <c r="U233" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V233" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="234" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="44">
         <v>2019</v>
       </c>
@@ -17299,7 +17296,7 @@
         <v>29</v>
       </c>
       <c r="M234" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N234" s="40">
         <v>113</v>
@@ -17323,13 +17320,13 @@
         <v>22</v>
       </c>
       <c r="U234" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V234" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="235" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="44">
         <v>2019</v>
       </c>
@@ -17367,7 +17364,7 @@
         <v>27</v>
       </c>
       <c r="M235" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N235" s="40">
         <v>121</v>
@@ -17391,13 +17388,13 @@
         <v>22</v>
       </c>
       <c r="U235" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V235" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="236" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="44">
         <v>2019</v>
       </c>
@@ -17435,7 +17432,7 @@
         <v>25</v>
       </c>
       <c r="M236" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N236" s="40">
         <v>116</v>
@@ -17459,13 +17456,13 @@
         <v>22</v>
       </c>
       <c r="U236" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V236" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="237" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="44">
         <v>2019</v>
       </c>
@@ -17503,7 +17500,7 @@
         <v>22</v>
       </c>
       <c r="M237" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N237" s="40">
         <v>135</v>
@@ -17533,7 +17530,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="238" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="44">
         <v>2019</v>
       </c>
@@ -17601,7 +17598,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="239" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="44">
         <v>2019</v>
       </c>
@@ -17639,7 +17636,7 @@
         <v>30</v>
       </c>
       <c r="M239" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N239" s="40">
         <v>115</v>
@@ -17663,13 +17660,13 @@
         <v>22</v>
       </c>
       <c r="U239" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V239" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="240" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="44">
         <v>2019</v>
       </c>
@@ -17707,7 +17704,7 @@
         <v>26</v>
       </c>
       <c r="M240" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N240" s="40">
         <v>121</v>
@@ -17737,7 +17734,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="241" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="44">
         <v>2019</v>
       </c>
@@ -17799,13 +17796,13 @@
         <v>23</v>
       </c>
       <c r="U241" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V241" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="242" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="44">
         <v>2019</v>
       </c>
@@ -17843,7 +17840,7 @@
         <v>21</v>
       </c>
       <c r="M242" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N242" s="40">
         <v>138</v>
@@ -17873,7 +17870,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="243" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="44">
         <v>2019</v>
       </c>
@@ -17911,7 +17908,7 @@
         <v>21</v>
       </c>
       <c r="M243" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N243" s="40">
         <v>129</v>
@@ -17935,13 +17932,13 @@
         <v>22</v>
       </c>
       <c r="U243" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V243" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="244" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="44">
         <v>2019</v>
       </c>
@@ -17979,7 +17976,7 @@
         <v>27</v>
       </c>
       <c r="M244" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N244" s="40">
         <v>130</v>
@@ -18003,13 +18000,13 @@
         <v>22</v>
       </c>
       <c r="U244" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V244" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="245" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="44">
         <v>2019</v>
       </c>
@@ -18047,7 +18044,7 @@
         <v>26</v>
       </c>
       <c r="M245" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N245" s="40">
         <v>118</v>
@@ -18071,13 +18068,13 @@
         <v>22</v>
       </c>
       <c r="U245" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V245" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="246" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="44">
         <v>2019</v>
       </c>
@@ -18115,7 +18112,7 @@
         <v>29</v>
       </c>
       <c r="M246" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N246" s="40">
         <v>110</v>
@@ -18139,13 +18136,13 @@
         <v>22</v>
       </c>
       <c r="U246" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V246" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="247" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="44">
         <v>2019</v>
       </c>
@@ -18183,7 +18180,7 @@
         <v>29</v>
       </c>
       <c r="M247" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N247" s="40">
         <v>112</v>
@@ -18207,13 +18204,13 @@
         <v>22</v>
       </c>
       <c r="U247" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V247" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="248" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="44">
         <v>2019</v>
       </c>
@@ -18251,7 +18248,7 @@
         <v>25</v>
       </c>
       <c r="M248" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N248" s="40">
         <v>117</v>
@@ -18275,13 +18272,13 @@
         <v>22</v>
       </c>
       <c r="U248" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V248" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="249" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="44">
         <v>2019</v>
       </c>
@@ -18319,7 +18316,7 @@
         <v>25</v>
       </c>
       <c r="M249" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N249" s="40">
         <v>111</v>
@@ -18349,7 +18346,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="250" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="44">
         <v>2019</v>
       </c>
@@ -18387,7 +18384,7 @@
         <v>21</v>
       </c>
       <c r="M250" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N250" s="40">
         <v>115</v>
@@ -18417,7 +18414,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="251" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="44">
         <v>2019</v>
       </c>
@@ -18428,7 +18425,7 @@
         <v>25</v>
       </c>
       <c r="D251" s="41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E251" s="41" t="s">
         <v>22</v>
@@ -18479,13 +18476,13 @@
         <v>22</v>
       </c>
       <c r="U251" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V251" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="252" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="44">
         <v>2019</v>
       </c>
@@ -18523,7 +18520,7 @@
         <v>20</v>
       </c>
       <c r="M252" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N252" s="40">
         <v>110</v>
@@ -18547,13 +18544,13 @@
         <v>22</v>
       </c>
       <c r="U252" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V252" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="253" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="44">
         <v>2019</v>
       </c>
@@ -18564,7 +18561,7 @@
         <v>45</v>
       </c>
       <c r="D253" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E253" s="41" t="s">
         <v>23</v>
@@ -18591,7 +18588,7 @@
         <v>20</v>
       </c>
       <c r="M253" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N253" s="40">
         <v>112</v>
@@ -18615,13 +18612,13 @@
         <v>23</v>
       </c>
       <c r="U253" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V253" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="254" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="44">
         <v>2019</v>
       </c>
@@ -18632,7 +18629,7 @@
         <v>45</v>
       </c>
       <c r="D254" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E254" s="41" t="s">
         <v>22</v>
@@ -18683,13 +18680,13 @@
         <v>22</v>
       </c>
       <c r="U254" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V254" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="255" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="44">
         <v>2019</v>
       </c>
@@ -18700,7 +18697,7 @@
         <v>46</v>
       </c>
       <c r="D255" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E255" s="41" t="s">
         <v>23</v>
@@ -18751,13 +18748,13 @@
         <v>23</v>
       </c>
       <c r="U255" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V255" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="256" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="44">
         <v>2019</v>
       </c>
@@ -18768,7 +18765,7 @@
         <v>44</v>
       </c>
       <c r="D256" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E256" s="41" t="s">
         <v>22</v>
@@ -18795,7 +18792,7 @@
         <v>24</v>
       </c>
       <c r="M256" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N256" s="40">
         <v>117</v>
@@ -18819,13 +18816,13 @@
         <v>22</v>
       </c>
       <c r="U256" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V256" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="257" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="44">
         <v>2019</v>
       </c>
@@ -18851,7 +18848,7 @@
         <v>266</v>
       </c>
       <c r="I257" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J257" s="41" t="s">
         <v>24</v>
@@ -18863,7 +18860,7 @@
         <v>23</v>
       </c>
       <c r="M257" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N257" s="40">
         <v>117</v>
@@ -18893,7 +18890,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="258" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="44">
         <v>2019</v>
       </c>
@@ -18931,7 +18928,7 @@
         <v>22</v>
       </c>
       <c r="M258" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N258" s="40">
         <v>121</v>
@@ -18955,13 +18952,13 @@
         <v>22</v>
       </c>
       <c r="U258" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V258" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="259" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="44">
         <v>2019</v>
       </c>
@@ -19029,7 +19026,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="260" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="44">
         <v>2019</v>
       </c>
@@ -19091,13 +19088,13 @@
         <v>22</v>
       </c>
       <c r="U260" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V260" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="261" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="44">
         <v>2019</v>
       </c>
@@ -19159,13 +19156,13 @@
         <v>23</v>
       </c>
       <c r="U261" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V261" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="262" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="44">
         <v>2019</v>
       </c>
@@ -19203,7 +19200,7 @@
         <v>18</v>
       </c>
       <c r="M262" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N262" s="40">
         <v>113</v>
@@ -19227,13 +19224,13 @@
         <v>22</v>
       </c>
       <c r="U262" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V262" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="263" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="44">
         <v>2019</v>
       </c>
@@ -19271,7 +19268,7 @@
         <v>20</v>
       </c>
       <c r="M263" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N263" s="40">
         <v>119</v>
@@ -19295,13 +19292,13 @@
         <v>22</v>
       </c>
       <c r="U263" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V263" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="264" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="44">
         <v>2019</v>
       </c>
@@ -19339,7 +19336,7 @@
         <v>28</v>
       </c>
       <c r="M264" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N264" s="40">
         <v>114</v>
@@ -19369,7 +19366,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="265" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="44">
         <v>2019</v>
       </c>
@@ -19437,7 +19434,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="266" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="44">
         <v>2019</v>
       </c>
@@ -19475,7 +19472,7 @@
         <v>27</v>
       </c>
       <c r="M266" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N266" s="40">
         <v>125</v>
@@ -19499,13 +19496,13 @@
         <v>22</v>
       </c>
       <c r="U266" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V266" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="267" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="44">
         <v>2019</v>
       </c>
@@ -19567,13 +19564,13 @@
         <v>23</v>
       </c>
       <c r="U267" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V267" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="268" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="44">
         <v>2019</v>
       </c>
@@ -19584,7 +19581,7 @@
         <v>45</v>
       </c>
       <c r="D268" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E268" s="41" t="s">
         <v>22</v>
@@ -19611,7 +19608,7 @@
         <v>21</v>
       </c>
       <c r="M268" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N268" s="40">
         <v>138</v>
@@ -19635,13 +19632,13 @@
         <v>23</v>
       </c>
       <c r="U268" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V268" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="269" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="44">
         <v>2019</v>
       </c>
@@ -19679,7 +19676,7 @@
         <v>31</v>
       </c>
       <c r="M269" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N269" s="40">
         <v>117</v>
@@ -19703,13 +19700,13 @@
         <v>22</v>
       </c>
       <c r="U269" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V269" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="270" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="44">
         <v>2019</v>
       </c>
@@ -19747,7 +19744,7 @@
         <v>23</v>
       </c>
       <c r="M270" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N270" s="40">
         <v>129</v>
@@ -19771,13 +19768,13 @@
         <v>23</v>
       </c>
       <c r="U270" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V270" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="271" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="44">
         <v>2019</v>
       </c>
@@ -19815,7 +19812,7 @@
         <v>21</v>
       </c>
       <c r="M271" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N271" s="40">
         <v>108</v>
@@ -19839,13 +19836,13 @@
         <v>22</v>
       </c>
       <c r="U271" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V271" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="272" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="44">
         <v>2019</v>
       </c>
@@ -19883,7 +19880,7 @@
         <v>24</v>
       </c>
       <c r="M272" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N272" s="40">
         <v>128</v>
@@ -19907,13 +19904,13 @@
         <v>22</v>
       </c>
       <c r="U272" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V272" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="273" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="44">
         <v>2019</v>
       </c>
@@ -19951,7 +19948,7 @@
         <v>21</v>
       </c>
       <c r="M273" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N273" s="40">
         <v>138</v>
@@ -19975,13 +19972,13 @@
         <v>22</v>
       </c>
       <c r="U273" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V273" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="274" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="44">
         <v>2019</v>
       </c>
@@ -20019,7 +20016,7 @@
         <v>22</v>
       </c>
       <c r="M274" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N274" s="40">
         <v>128</v>
@@ -20043,13 +20040,13 @@
         <v>22</v>
       </c>
       <c r="U274" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V274" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="275" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="44">
         <v>2019</v>
       </c>
@@ -20087,7 +20084,7 @@
         <v>27</v>
       </c>
       <c r="M275" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N275" s="40">
         <v>131</v>
@@ -20111,13 +20108,13 @@
         <v>22</v>
       </c>
       <c r="U275" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V275" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="276" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="44">
         <v>2019</v>
       </c>
@@ -20155,7 +20152,7 @@
         <v>19</v>
       </c>
       <c r="M276" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N276" s="40">
         <v>124</v>
@@ -20179,13 +20176,13 @@
         <v>23</v>
       </c>
       <c r="U276" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V276" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="277" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="44">
         <v>2019</v>
       </c>
@@ -20223,7 +20220,7 @@
         <v>21</v>
       </c>
       <c r="M277" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N277" s="40">
         <v>109</v>
@@ -20247,13 +20244,13 @@
         <v>22</v>
       </c>
       <c r="U277" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V277" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="278" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="44">
         <v>2019</v>
       </c>
@@ -20291,7 +20288,7 @@
         <v>26</v>
       </c>
       <c r="M278" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N278" s="40">
         <v>123</v>
@@ -20315,13 +20312,13 @@
         <v>22</v>
       </c>
       <c r="U278" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V278" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="279" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="44">
         <v>2019</v>
       </c>
@@ -20359,7 +20356,7 @@
         <v>35</v>
       </c>
       <c r="M279" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N279" s="40">
         <v>109</v>
@@ -20383,13 +20380,13 @@
         <v>22</v>
       </c>
       <c r="U279" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V279" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="280" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="44">
         <v>2019</v>
       </c>
@@ -20451,13 +20448,13 @@
         <v>23</v>
       </c>
       <c r="U280" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V280" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="281" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="44">
         <v>2019</v>
       </c>
@@ -20519,13 +20516,13 @@
         <v>23</v>
       </c>
       <c r="U281" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V281" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="282" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="44">
         <v>2019</v>
       </c>
@@ -20563,7 +20560,7 @@
         <v>23</v>
       </c>
       <c r="M282" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N282" s="40">
         <v>119</v>
@@ -20587,13 +20584,13 @@
         <v>22</v>
       </c>
       <c r="U282" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V282" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="283" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="44">
         <v>2019</v>
       </c>
@@ -20631,7 +20628,7 @@
         <v>19</v>
       </c>
       <c r="M283" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N283" s="40">
         <v>115</v>
@@ -20655,13 +20652,13 @@
         <v>23</v>
       </c>
       <c r="U283" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V283" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="284" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="44">
         <v>2019</v>
       </c>
@@ -20699,7 +20696,7 @@
         <v>23</v>
       </c>
       <c r="M284" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N284" s="40">
         <v>110</v>
@@ -20729,7 +20726,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="285" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="44">
         <v>2019</v>
       </c>
@@ -20767,7 +20764,7 @@
         <v>25</v>
       </c>
       <c r="M285" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N285" s="40">
         <v>114</v>
@@ -20791,13 +20788,13 @@
         <v>23</v>
       </c>
       <c r="U285" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V285" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="286" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="44">
         <v>2019</v>
       </c>
@@ -20835,7 +20832,7 @@
         <v>19</v>
       </c>
       <c r="M286" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N286" s="40">
         <v>119</v>
@@ -20865,7 +20862,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="287" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="44">
         <v>2019</v>
       </c>
@@ -20903,7 +20900,7 @@
         <v>27</v>
       </c>
       <c r="M287" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N287" s="40">
         <v>123</v>
@@ -20933,7 +20930,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="288" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="44">
         <v>2019</v>
       </c>
@@ -20971,7 +20968,7 @@
         <v>25</v>
       </c>
       <c r="M288" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N288" s="40">
         <v>130</v>
@@ -21001,7 +20998,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="289" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="44">
         <v>2019</v>
       </c>
@@ -21039,7 +21036,7 @@
         <v>20</v>
       </c>
       <c r="M289" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N289" s="40">
         <v>114</v>
@@ -21063,13 +21060,13 @@
         <v>23</v>
       </c>
       <c r="U289" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V289" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="290" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="44">
         <v>2019</v>
       </c>
@@ -21107,7 +21104,7 @@
         <v>21</v>
       </c>
       <c r="M290" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N290" s="40">
         <v>135</v>
@@ -21131,13 +21128,13 @@
         <v>23</v>
       </c>
       <c r="U290" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V290" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="291" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="44">
         <v>2019</v>
       </c>
@@ -21175,7 +21172,7 @@
         <v>21</v>
       </c>
       <c r="M291" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N291" s="40">
         <v>113</v>
@@ -21205,7 +21202,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="292" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="44">
         <v>2019</v>
       </c>
@@ -21243,7 +21240,7 @@
         <v>26</v>
       </c>
       <c r="M292" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N292" s="40">
         <v>111</v>
@@ -21273,7 +21270,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="293" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="44">
         <v>2019</v>
       </c>
@@ -21335,13 +21332,13 @@
         <v>22</v>
       </c>
       <c r="U293" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V293" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="294" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="44">
         <v>2019</v>
       </c>
@@ -21352,7 +21349,7 @@
         <v>45</v>
       </c>
       <c r="D294" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E294" s="41" t="s">
         <v>22</v>
@@ -21403,13 +21400,13 @@
         <v>22</v>
       </c>
       <c r="U294" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V294" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="295" spans="1:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:22" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="44">
         <v>2019</v>
       </c>
@@ -21447,7 +21444,7 @@
         <v>29</v>
       </c>
       <c r="M295" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N295" s="40">
         <v>119</v>
@@ -21471,13 +21468,13 @@
         <v>22</v>
       </c>
       <c r="U295" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V295" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="296" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="44">
         <v>2019</v>
       </c>
@@ -21488,7 +21485,7 @@
         <v>45</v>
       </c>
       <c r="D296" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E296" s="41" t="s">
         <v>22</v>
@@ -21515,7 +21512,7 @@
         <v>33</v>
       </c>
       <c r="M296" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N296" s="40">
         <v>111</v>
@@ -21539,13 +21536,13 @@
         <v>22</v>
       </c>
       <c r="U296" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V296" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="297" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="44">
         <v>2019</v>
       </c>
@@ -21583,7 +21580,7 @@
         <v>23</v>
       </c>
       <c r="M297" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N297" s="40">
         <v>133</v>
@@ -21607,13 +21604,13 @@
         <v>22</v>
       </c>
       <c r="U297" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V297" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="298" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="44">
         <v>2019</v>
       </c>
@@ -21624,7 +21621,7 @@
         <v>45</v>
       </c>
       <c r="D298" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E298" s="41" t="s">
         <v>22</v>
@@ -21681,7 +21678,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="299" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="44">
         <v>2019</v>
       </c>
@@ -21692,7 +21689,7 @@
         <v>46</v>
       </c>
       <c r="D299" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E299" s="41" t="s">
         <v>23</v>
@@ -21743,13 +21740,13 @@
         <v>23</v>
       </c>
       <c r="U299" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V299" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="300" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="44">
         <v>2019</v>
       </c>
@@ -21787,7 +21784,7 @@
         <v>21</v>
       </c>
       <c r="M300" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N300" s="40">
         <v>117</v>
@@ -21811,13 +21808,13 @@
         <v>22</v>
       </c>
       <c r="U300" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V300" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="301" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="44">
         <v>2019</v>
       </c>
@@ -21855,7 +21852,7 @@
         <v>31</v>
       </c>
       <c r="M301" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N301" s="40">
         <v>108</v>
@@ -21885,7 +21882,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="302" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="44">
         <v>2019</v>
       </c>
@@ -21923,7 +21920,7 @@
         <v>30</v>
       </c>
       <c r="M302" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N302" s="40">
         <v>108</v>
@@ -21947,13 +21944,13 @@
         <v>23</v>
       </c>
       <c r="U302" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V302" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="303" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="44">
         <v>2019</v>
       </c>
@@ -22021,7 +22018,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="304" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="44">
         <v>2019</v>
       </c>
@@ -22059,7 +22056,7 @@
         <v>30</v>
       </c>
       <c r="M304" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N304" s="40">
         <v>128</v>
@@ -22089,7 +22086,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="305" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="44">
         <v>2019</v>
       </c>
@@ -22127,7 +22124,7 @@
         <v>22</v>
       </c>
       <c r="M305" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N305" s="40">
         <v>111</v>
@@ -22151,13 +22148,13 @@
         <v>22</v>
       </c>
       <c r="U305" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V305" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="306" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="44">
         <v>2019</v>
       </c>
@@ -22195,7 +22192,7 @@
         <v>20</v>
       </c>
       <c r="M306" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N306" s="40">
         <v>110</v>
@@ -22219,13 +22216,13 @@
         <v>23</v>
       </c>
       <c r="U306" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V306" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="307" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="44">
         <v>2019</v>
       </c>
@@ -22236,7 +22233,7 @@
         <v>25</v>
       </c>
       <c r="D307" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E307" s="41" t="s">
         <v>23</v>
@@ -22287,13 +22284,13 @@
         <v>23</v>
       </c>
       <c r="U307" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V307" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="308" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="44">
         <v>2019</v>
       </c>
@@ -22331,7 +22328,7 @@
         <v>24</v>
       </c>
       <c r="M308" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N308" s="40">
         <v>109</v>
@@ -22355,13 +22352,13 @@
         <v>23</v>
       </c>
       <c r="U308" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V308" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="309" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="44">
         <v>2019</v>
       </c>
@@ -22399,7 +22396,7 @@
         <v>24</v>
       </c>
       <c r="M309" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N309" s="40">
         <v>118</v>
@@ -22423,13 +22420,13 @@
         <v>22</v>
       </c>
       <c r="U309" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V309" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="310" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="44">
         <v>2019</v>
       </c>
@@ -22467,7 +22464,7 @@
         <v>26</v>
       </c>
       <c r="M310" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N310" s="40">
         <v>115</v>
@@ -22491,13 +22488,13 @@
         <v>23</v>
       </c>
       <c r="U310" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V310" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="311" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="44">
         <v>2019</v>
       </c>
@@ -22559,13 +22556,13 @@
         <v>22</v>
       </c>
       <c r="U311" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V311" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="312" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="44">
         <v>2019</v>
       </c>
@@ -22603,7 +22600,7 @@
         <v>23</v>
       </c>
       <c r="M312" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N312" s="40">
         <v>108</v>
@@ -22633,7 +22630,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="313" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="44">
         <v>2019</v>
       </c>
@@ -22671,7 +22668,7 @@
         <v>26</v>
       </c>
       <c r="M313" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N313" s="40">
         <v>109</v>
@@ -22695,13 +22692,13 @@
         <v>23</v>
       </c>
       <c r="U313" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V313" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="314" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="44">
         <v>2019</v>
       </c>
@@ -22739,7 +22736,7 @@
         <v>19</v>
       </c>
       <c r="M314" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N314" s="40">
         <v>121</v>
@@ -22763,13 +22760,13 @@
         <v>23</v>
       </c>
       <c r="U314" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V314" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="315" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="44">
         <v>2019</v>
       </c>
@@ -22807,7 +22804,7 @@
         <v>31</v>
       </c>
       <c r="M315" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N315" s="40">
         <v>112</v>
@@ -22831,13 +22828,13 @@
         <v>23</v>
       </c>
       <c r="U315" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V315" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="316" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="44">
         <v>2019</v>
       </c>
@@ -22875,7 +22872,7 @@
         <v>25</v>
       </c>
       <c r="M316" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N316" s="40">
         <v>130</v>
@@ -22899,13 +22896,13 @@
         <v>22</v>
       </c>
       <c r="U316" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V316" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="317" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="44">
         <v>2019</v>
       </c>
@@ -22916,7 +22913,7 @@
         <v>46</v>
       </c>
       <c r="D317" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E317" s="41" t="s">
         <v>22</v>
@@ -22943,7 +22940,7 @@
         <v>22</v>
       </c>
       <c r="M317" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N317" s="40">
         <v>120</v>
@@ -22973,7 +22970,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="318" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="44">
         <v>2019</v>
       </c>
@@ -23011,7 +23008,7 @@
         <v>31</v>
       </c>
       <c r="M318" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N318" s="40">
         <v>111</v>
@@ -23041,7 +23038,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="319" spans="1:22" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="44">
         <v>2019</v>
       </c>
@@ -23079,7 +23076,7 @@
         <v>27</v>
       </c>
       <c r="M319" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N319" s="40">
         <v>127</v>
@@ -23103,14 +23100,20 @@
         <v>22</v>
       </c>
       <c r="U319" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V319" s="41" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V1" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <autoFilter ref="A1:V319" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <filterColumn colId="19">
+      <filters>
+        <filter val="DisT"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.18" right="0.16" top="0.2" bottom="0.16" header="0.1" footer="0.11"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
